--- a/data/output/Pedido_Semana_14_2026-02-03_interior.xlsx
+++ b/data/output/Pedido_Semana_14_2026-02-03_interior.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P136"/>
+  <dimension ref="A1:P133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -820,10 +820,10 @@
         <v>4</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="M5" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N5" s="4" t="n">
         <v>47.88</v>
@@ -886,10 +886,10 @@
         <v>3</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M6" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N6" s="4" t="n">
         <v>80.91</v>
@@ -952,10 +952,10 @@
         <v>4</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M7" s="3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N7" s="4" t="n">
         <v>22.75</v>
@@ -1084,10 +1084,10 @@
         <v>9</v>
       </c>
       <c r="L9" s="3" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="M9" s="3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N9" s="4" t="n">
         <v>32.2</v>
@@ -1150,10 +1150,10 @@
         <v>4</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M10" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="4" t="n">
         <v>27.5</v>
@@ -1810,10 +1810,10 @@
         <v>1</v>
       </c>
       <c r="L20" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M20" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" s="4" t="n">
         <v>9.99</v>
@@ -2008,10 +2008,10 @@
         <v>1</v>
       </c>
       <c r="L23" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M23" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="4" t="n">
         <v>25.8</v>
@@ -2206,10 +2206,10 @@
         <v>1</v>
       </c>
       <c r="L26" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M26" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N26" s="4" t="n">
         <v>20.97</v>
@@ -2272,10 +2272,10 @@
         <v>1</v>
       </c>
       <c r="L27" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M27" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" s="4" t="n">
         <v>4.99</v>
@@ -2338,10 +2338,10 @@
         <v>1</v>
       </c>
       <c r="L28" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M28" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" s="4" t="n">
         <v>4.5</v>
@@ -2404,10 +2404,10 @@
         <v>4</v>
       </c>
       <c r="L29" s="3" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="M29" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N29" s="4" t="n">
         <v>32.89</v>
@@ -3394,10 +3394,10 @@
         <v>1</v>
       </c>
       <c r="L44" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M44" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N44" s="4" t="n">
         <v>29.97</v>
@@ -4186,10 +4186,10 @@
         <v>1</v>
       </c>
       <c r="L56" s="3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M56" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N56" s="4" t="n">
         <v>20.85</v>
@@ -4252,10 +4252,10 @@
         <v>3</v>
       </c>
       <c r="L57" s="3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M57" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N57" s="4" t="n">
         <v>31.92</v>
@@ -4384,10 +4384,10 @@
         <v>3</v>
       </c>
       <c r="L59" s="3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M59" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N59" s="4" t="n">
         <v>38.25</v>
@@ -4912,10 +4912,10 @@
         <v>2</v>
       </c>
       <c r="L67" s="3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M67" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N67" s="4" t="n">
         <v>14.6</v>
@@ -4978,10 +4978,10 @@
         <v>1</v>
       </c>
       <c r="L68" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M68" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N68" s="4" t="n">
         <v>5.25</v>
@@ -4998,17 +4998,17 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>1304010001</t>
+          <t>1306050001</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>DIONAEA MISCUPULA</t>
+          <t>CALATHEA MIX</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M85A10   </t>
+          <t xml:space="preserve">M14A50   </t>
         </is>
       </c>
       <c r="D69" s="2" t="inlineStr">
@@ -5025,19 +5025,19 @@
         <v>1</v>
       </c>
       <c r="G69" s="4" t="n">
-        <v>7.99</v>
+        <v>17.95</v>
       </c>
       <c r="H69" s="4" t="n">
-        <v>3.35</v>
+        <v>6.23</v>
       </c>
       <c r="I69" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J69" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 19%</t>
+          <t>REDUCIR 50%</t>
         </is>
       </c>
       <c r="K69" s="3" t="n">
@@ -5050,10 +5050,10 @@
         <v>0</v>
       </c>
       <c r="N69" s="4" t="n">
-        <v>7.99</v>
+        <v>17.95</v>
       </c>
       <c r="O69" s="4" t="n">
-        <v>4.64</v>
+        <v>11.72</v>
       </c>
       <c r="P69" s="5" t="inlineStr">
         <is>
@@ -5064,17 +5064,17 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>1306040001</t>
+          <t>1306200001</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>BEGONIA ELATIOR</t>
+          <t>KALANCHOE BLOSSFELDIANA</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M14A30   </t>
+          <t xml:space="preserve">M105A20  </t>
         </is>
       </c>
       <c r="D70" s="2" t="inlineStr">
@@ -5088,13 +5088,13 @@
         </is>
       </c>
       <c r="F70" s="3" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="G70" s="4" t="n">
-        <v>9.5</v>
+        <v>4.95</v>
       </c>
       <c r="H70" s="4" t="n">
-        <v>3.7</v>
+        <v>1.08</v>
       </c>
       <c r="I70" s="2" t="inlineStr">
         <is>
@@ -5103,23 +5103,23 @@
       </c>
       <c r="J70" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 15%</t>
+          <t>AUMENTAR 19%</t>
         </is>
       </c>
       <c r="K70" s="3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L70" s="3" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="M70" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N70" s="4" t="n">
-        <v>9.5</v>
+        <v>94.05</v>
       </c>
       <c r="O70" s="4" t="n">
-        <v>5.8</v>
+        <v>73.53</v>
       </c>
       <c r="P70" s="5" t="inlineStr">
         <is>
@@ -5130,17 +5130,17 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>1306050001</t>
+          <t>1306200001</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>CALATHEA MIX</t>
+          <t>KALANCHOE BLOSSFELDIANA</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M14A50   </t>
+          <t xml:space="preserve">M7A15    </t>
         </is>
       </c>
       <c r="D71" s="2" t="inlineStr">
@@ -5154,38 +5154,38 @@
         </is>
       </c>
       <c r="F71" s="3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G71" s="4" t="n">
-        <v>17.95</v>
+        <v>2.99</v>
       </c>
       <c r="H71" s="4" t="n">
-        <v>6.23</v>
+        <v>1.2</v>
       </c>
       <c r="I71" s="2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J71" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 50%</t>
+          <t>AUMENTAR 19%</t>
         </is>
       </c>
       <c r="K71" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L71" s="3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="M71" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N71" s="4" t="n">
-        <v>17.95</v>
+        <v>20.93</v>
       </c>
       <c r="O71" s="4" t="n">
-        <v>11.72</v>
+        <v>12.56</v>
       </c>
       <c r="P71" s="5" t="inlineStr">
         <is>
@@ -5196,17 +5196,17 @@
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>1306200001</t>
+          <t>1306210001</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>KALANCHOE BLOSSFELDIANA</t>
+          <t>LILIUM MEZCLA</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M105A20  </t>
+          <t xml:space="preserve">M13A35   </t>
         </is>
       </c>
       <c r="D72" s="2" t="inlineStr">
@@ -5220,13 +5220,13 @@
         </is>
       </c>
       <c r="F72" s="3" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="G72" s="4" t="n">
-        <v>4.95</v>
+        <v>7.99</v>
       </c>
       <c r="H72" s="4" t="n">
-        <v>1.08</v>
+        <v>3.06</v>
       </c>
       <c r="I72" s="2" t="inlineStr">
         <is>
@@ -5235,23 +5235,23 @@
       </c>
       <c r="J72" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 19%</t>
+          <t>REDUCIR 35%</t>
         </is>
       </c>
       <c r="K72" s="3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L72" s="3" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="M72" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N72" s="4" t="n">
-        <v>94.05</v>
+        <v>47.94</v>
       </c>
       <c r="O72" s="4" t="n">
-        <v>73.53</v>
+        <v>29.58</v>
       </c>
       <c r="P72" s="5" t="inlineStr">
         <is>
@@ -5262,17 +5262,17 @@
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>1306200001</t>
+          <t>1306240001</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>KALANCHOE BLOSSFELDIANA</t>
+          <t>ROSA KORDANA MEZCLA</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M7A15    </t>
+          <t xml:space="preserve">M105A20  </t>
         </is>
       </c>
       <c r="D73" s="2" t="inlineStr">
@@ -5286,13 +5286,13 @@
         </is>
       </c>
       <c r="F73" s="3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G73" s="4" t="n">
-        <v>2.99</v>
+        <v>4.99</v>
       </c>
       <c r="H73" s="4" t="n">
-        <v>1.2</v>
+        <v>2.32</v>
       </c>
       <c r="I73" s="2" t="inlineStr">
         <is>
@@ -5305,19 +5305,19 @@
         </is>
       </c>
       <c r="K73" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="L73" s="3" t="n">
-        <v>7</v>
-      </c>
       <c r="M73" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N73" s="4" t="n">
-        <v>20.93</v>
+        <v>14.97</v>
       </c>
       <c r="O73" s="4" t="n">
-        <v>12.56</v>
+        <v>8.01</v>
       </c>
       <c r="P73" s="5" t="inlineStr">
         <is>
@@ -5328,17 +5328,17 @@
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>1306210001</t>
+          <t>1306250001</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>LILIUM MEZCLA</t>
+          <t>SAINTPAULIA</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M13A35   </t>
+          <t xml:space="preserve">M12A20   </t>
         </is>
       </c>
       <c r="D74" s="2" t="inlineStr">
@@ -5352,13 +5352,13 @@
         </is>
       </c>
       <c r="F74" s="3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G74" s="4" t="n">
-        <v>7.99</v>
+        <v>3.99</v>
       </c>
       <c r="H74" s="4" t="n">
-        <v>3.06</v>
+        <v>1.52</v>
       </c>
       <c r="I74" s="2" t="inlineStr">
         <is>
@@ -5367,23 +5367,23 @@
       </c>
       <c r="J74" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 35%</t>
+          <t>REDUCIR 50%</t>
         </is>
       </c>
       <c r="K74" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L74" s="3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M74" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N74" s="4" t="n">
-        <v>47.94</v>
+        <v>11.97</v>
       </c>
       <c r="O74" s="4" t="n">
-        <v>29.58</v>
+        <v>7.41</v>
       </c>
       <c r="P74" s="5" t="inlineStr">
         <is>
@@ -5394,17 +5394,17 @@
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>1306240001</t>
+          <t>1501050003</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>ROSA KORDANA MEZCLA</t>
+          <t>OPUNTIA MIX + CERAMICA</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M105A20  </t>
+          <t xml:space="preserve">M13A35   </t>
         </is>
       </c>
       <c r="D75" s="2" t="inlineStr">
@@ -5418,38 +5418,38 @@
         </is>
       </c>
       <c r="F75" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G75" s="4" t="n">
-        <v>4.99</v>
+        <v>22.95</v>
       </c>
       <c r="H75" s="4" t="n">
-        <v>2.32</v>
+        <v>8.17</v>
       </c>
       <c r="I75" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J75" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 19%</t>
+          <t>REDUCIR 50%</t>
         </is>
       </c>
       <c r="K75" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L75" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M75" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N75" s="4" t="n">
-        <v>14.97</v>
+        <v>22.95</v>
       </c>
       <c r="O75" s="4" t="n">
-        <v>8.01</v>
+        <v>14.78</v>
       </c>
       <c r="P75" s="5" t="inlineStr">
         <is>
@@ -5460,17 +5460,17 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>1306250001</t>
+          <t>1504010002</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>SAINTPAULIA</t>
+          <t>RHIPSALIS / SCHLUMBERGERA</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M12A20   </t>
+          <t xml:space="preserve">M105A30  </t>
         </is>
       </c>
       <c r="D76" s="2" t="inlineStr">
@@ -5484,38 +5484,38 @@
         </is>
       </c>
       <c r="F76" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G76" s="4" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="H76" s="4" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="I76" s="2" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J76" s="2" t="inlineStr">
+        <is>
+          <t>AUMENTAR 19%</t>
+        </is>
+      </c>
+      <c r="K76" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="G76" s="4" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="H76" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="I76" s="2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="J76" s="2" t="inlineStr">
-        <is>
-          <t>REDUCIR 50%</t>
-        </is>
-      </c>
-      <c r="K76" s="3" t="n">
-        <v>1</v>
-      </c>
       <c r="L76" s="3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M76" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N76" s="4" t="n">
-        <v>11.97</v>
+        <v>55.93</v>
       </c>
       <c r="O76" s="4" t="n">
-        <v>7.41</v>
+        <v>36.4</v>
       </c>
       <c r="P76" s="5" t="inlineStr">
         <is>
@@ -5526,17 +5526,17 @@
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>1501050003</t>
+          <t>1504010002</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>OPUNTIA MIX + CERAMICA</t>
+          <t>RHIPSALIS / SCHLUMBERGERA</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M13A35   </t>
+          <t xml:space="preserve">M15COLG  </t>
         </is>
       </c>
       <c r="D77" s="2" t="inlineStr">
@@ -5550,38 +5550,38 @@
         </is>
       </c>
       <c r="F77" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G77" s="4" t="n">
-        <v>22.95</v>
+        <v>13.5</v>
       </c>
       <c r="H77" s="4" t="n">
-        <v>8.17</v>
+        <v>5.4</v>
       </c>
       <c r="I77" s="2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="J77" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 50%</t>
+          <t>AUMENTAR 30%</t>
         </is>
       </c>
       <c r="K77" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L77" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M77" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N77" s="4" t="n">
-        <v>22.95</v>
+        <v>27</v>
       </c>
       <c r="O77" s="4" t="n">
-        <v>14.78</v>
+        <v>16.2</v>
       </c>
       <c r="P77" s="5" t="inlineStr">
         <is>
@@ -5592,17 +5592,17 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>1504010002</t>
+          <t>1506010009</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>RHIPSALIS / SCHLUMBERGERA</t>
+          <t>SANSEVIERA HAHNII MIX</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M105A30  </t>
+          <t xml:space="preserve">M6A15    </t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr">
@@ -5619,35 +5619,35 @@
         <v>7</v>
       </c>
       <c r="G78" s="4" t="n">
-        <v>7.99</v>
+        <v>3.99</v>
       </c>
       <c r="H78" s="4" t="n">
-        <v>2.79</v>
+        <v>2.22</v>
       </c>
       <c r="I78" s="2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J78" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 19%</t>
+          <t>REDUCIR 25%</t>
         </is>
       </c>
       <c r="K78" s="3" t="n">
         <v>3</v>
       </c>
       <c r="L78" s="3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M78" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N78" s="4" t="n">
-        <v>55.93</v>
+        <v>27.93</v>
       </c>
       <c r="O78" s="4" t="n">
-        <v>36.4</v>
+        <v>12.39</v>
       </c>
       <c r="P78" s="5" t="inlineStr">
         <is>
@@ -5658,17 +5658,17 @@
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>1504010002</t>
+          <t>1501070003</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>RHIPSALIS / SCHLUMBERGERA</t>
+          <t>CACTUS+CUBREMACETA</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M15COLG  </t>
+          <t xml:space="preserve">M55A10   </t>
         </is>
       </c>
       <c r="D79" s="2" t="inlineStr">
@@ -5685,10 +5685,10 @@
         <v>2</v>
       </c>
       <c r="G79" s="4" t="n">
-        <v>13.5</v>
+        <v>1.55</v>
       </c>
       <c r="H79" s="4" t="n">
-        <v>5.4</v>
+        <v>0.55</v>
       </c>
       <c r="I79" s="2" t="inlineStr">
         <is>
@@ -5710,31 +5710,31 @@
         <v>0</v>
       </c>
       <c r="N79" s="4" t="n">
-        <v>27</v>
+        <v>3.1</v>
       </c>
       <c r="O79" s="4" t="n">
-        <v>16.2</v>
+        <v>2</v>
       </c>
       <c r="P79" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVADOPLANT BV                                                                                                          </t>
+          <t xml:space="preserve">LA PACHECA VIVEROS SL                                                                                                   </t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>1506010009</t>
+          <t>1109210001</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>SANSEVIERA HAHNII MIX</t>
+          <t>PILEA PEPEROMIOIDES</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M6A15    </t>
+          <t xml:space="preserve">M12A15   </t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr">
@@ -5748,59 +5748,59 @@
         </is>
       </c>
       <c r="F80" s="3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G80" s="4" t="n">
-        <v>3.99</v>
+        <v>9.99</v>
       </c>
       <c r="H80" s="4" t="n">
-        <v>2.22</v>
+        <v>2.63</v>
       </c>
       <c r="I80" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J80" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 25%</t>
+          <t>REDUCIR 35%</t>
         </is>
       </c>
       <c r="K80" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L80" s="3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="M80" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N80" s="4" t="n">
-        <v>27.93</v>
+        <v>19.98</v>
       </c>
       <c r="O80" s="4" t="n">
-        <v>12.39</v>
+        <v>14.72</v>
       </c>
       <c r="P80" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">JAVADOPLANT BV                                                                                                          </t>
+          <t xml:space="preserve">LEMKES EXPORT BV                                                                                                        </t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>1501070003</t>
+          <t>1303010001</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>CACTUS+CUBREMACETA</t>
+          <t>AECHMEA</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M55A10   </t>
+          <t xml:space="preserve">M15A60   </t>
         </is>
       </c>
       <c r="D81" s="2" t="inlineStr">
@@ -5817,19 +5817,19 @@
         <v>2</v>
       </c>
       <c r="G81" s="4" t="n">
-        <v>1.55</v>
+        <v>23.99</v>
       </c>
       <c r="H81" s="4" t="n">
-        <v>0.55</v>
+        <v>7.33</v>
       </c>
       <c r="I81" s="2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J81" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 30%</t>
+          <t>AUMENTAR 19%</t>
         </is>
       </c>
       <c r="K81" s="3" t="n">
@@ -5842,31 +5842,31 @@
         <v>0</v>
       </c>
       <c r="N81" s="4" t="n">
-        <v>3.1</v>
+        <v>47.98</v>
       </c>
       <c r="O81" s="4" t="n">
-        <v>2</v>
+        <v>33.32</v>
       </c>
       <c r="P81" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">LA PACHECA VIVEROS SL                                                                                                   </t>
+          <t xml:space="preserve">LEMKES EXPORT BV                                                                                                        </t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>1109210001</t>
+          <t>1701010001</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>PILEA PEPEROMIOIDES</t>
+          <t>BONSAI</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M12A15   </t>
+          <t xml:space="preserve">7A       </t>
         </is>
       </c>
       <c r="D82" s="2" t="inlineStr">
@@ -5880,59 +5880,59 @@
         </is>
       </c>
       <c r="F82" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G82" s="4" t="n">
+        <v>38.95</v>
+      </c>
+      <c r="H82" s="4" t="n">
+        <v>17.15</v>
+      </c>
+      <c r="I82" s="2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J82" s="2" t="inlineStr">
+        <is>
+          <t>AUMENTAR 19%</t>
+        </is>
+      </c>
+      <c r="K82" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G82" s="4" t="n">
-        <v>9.99</v>
-      </c>
-      <c r="H82" s="4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="I82" s="2" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="J82" s="2" t="inlineStr">
-        <is>
-          <t>REDUCIR 35%</t>
-        </is>
-      </c>
-      <c r="K82" s="3" t="n">
-        <v>1</v>
-      </c>
       <c r="L82" s="3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M82" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N82" s="4" t="n">
-        <v>19.98</v>
+        <v>233.7</v>
       </c>
       <c r="O82" s="4" t="n">
-        <v>14.72</v>
+        <v>130.8</v>
       </c>
       <c r="P82" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">LEMKES EXPORT BV                                                                                                        </t>
+          <t xml:space="preserve">MISTRAL BONSAI, S.L.                                                                                                    </t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>1303010001</t>
+          <t>1701010001</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>AECHMEA</t>
+          <t>BONSAI</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M15A60   </t>
+          <t xml:space="preserve">9A       </t>
         </is>
       </c>
       <c r="D83" s="2" t="inlineStr">
@@ -5949,10 +5949,10 @@
         <v>2</v>
       </c>
       <c r="G83" s="4" t="n">
-        <v>23.99</v>
+        <v>55.95</v>
       </c>
       <c r="H83" s="4" t="n">
-        <v>7.33</v>
+        <v>22.55</v>
       </c>
       <c r="I83" s="2" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
       </c>
       <c r="J83" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 19%</t>
+          <t>REDUCIR 50%</t>
         </is>
       </c>
       <c r="K83" s="3" t="n">
@@ -5974,14 +5974,14 @@
         <v>0</v>
       </c>
       <c r="N83" s="4" t="n">
-        <v>47.98</v>
+        <v>111.9</v>
       </c>
       <c r="O83" s="4" t="n">
-        <v>33.32</v>
+        <v>66.8</v>
       </c>
       <c r="P83" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">LEMKES EXPORT BV                                                                                                        </t>
+          <t xml:space="preserve">MISTRAL BONSAI, S.L.                                                                                                    </t>
         </is>
       </c>
     </row>
@@ -5998,7 +5998,7 @@
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">7A       </t>
+          <t xml:space="preserve">5A       </t>
         </is>
       </c>
       <c r="D84" s="2" t="inlineStr">
@@ -6012,13 +6012,13 @@
         </is>
       </c>
       <c r="F84" s="3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G84" s="4" t="n">
-        <v>38.95</v>
+        <v>19.99</v>
       </c>
       <c r="H84" s="4" t="n">
-        <v>17.15</v>
+        <v>7.25</v>
       </c>
       <c r="I84" s="2" t="inlineStr">
         <is>
@@ -6031,19 +6031,19 @@
         </is>
       </c>
       <c r="K84" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="L84" s="3" t="n">
-        <v>6</v>
-      </c>
       <c r="M84" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N84" s="4" t="n">
-        <v>233.7</v>
+        <v>39.98</v>
       </c>
       <c r="O84" s="4" t="n">
-        <v>130.8</v>
+        <v>25.48</v>
       </c>
       <c r="P84" s="5" t="inlineStr">
         <is>
@@ -6054,17 +6054,17 @@
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>1701010001</t>
+          <t>1501060010</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>BONSAI</t>
+          <t>FRAILEA CASTANEA</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">9A       </t>
+          <t xml:space="preserve">M65A10   </t>
         </is>
       </c>
       <c r="D85" s="2" t="inlineStr">
@@ -6081,19 +6081,19 @@
         <v>2</v>
       </c>
       <c r="G85" s="4" t="n">
-        <v>55.95</v>
+        <v>7.99</v>
       </c>
       <c r="H85" s="4" t="n">
-        <v>22.55</v>
+        <v>2.82</v>
       </c>
       <c r="I85" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J85" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 50%</t>
+          <t>REDUCIR 30%</t>
         </is>
       </c>
       <c r="K85" s="3" t="n">
@@ -6106,31 +6106,31 @@
         <v>0</v>
       </c>
       <c r="N85" s="4" t="n">
-        <v>111.9</v>
+        <v>15.98</v>
       </c>
       <c r="O85" s="4" t="n">
-        <v>66.8</v>
+        <v>10.34</v>
       </c>
       <c r="P85" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">MISTRAL BONSAI, S.L.                                                                                                    </t>
+          <t xml:space="preserve">SEMILLAS ILURO S.L.U.                                                                                                   </t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>1701010001</t>
+          <t>1501060013</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>BONSAI</t>
+          <t>CRASSULA BARKLYI</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">5A       </t>
+          <t xml:space="preserve">M65A10   </t>
         </is>
       </c>
       <c r="D86" s="2" t="inlineStr">
@@ -6144,59 +6144,59 @@
         </is>
       </c>
       <c r="F86" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G86" s="4" t="n">
-        <v>19.99</v>
+        <v>7.49</v>
       </c>
       <c r="H86" s="4" t="n">
-        <v>7.25</v>
+        <v>2.71</v>
       </c>
       <c r="I86" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J86" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 19%</t>
+          <t>REDUCIR 30%</t>
         </is>
       </c>
       <c r="K86" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L86" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M86" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N86" s="4" t="n">
-        <v>39.98</v>
+        <v>7.49</v>
       </c>
       <c r="O86" s="4" t="n">
-        <v>25.48</v>
+        <v>4.78</v>
       </c>
       <c r="P86" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">MISTRAL BONSAI, S.L.                                                                                                    </t>
+          <t xml:space="preserve">SEMILLAS ILURO S.L.U.                                                                                                   </t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>1501060010</t>
+          <t>1501070007</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>FRAILEA CASTANEA</t>
+          <t>CACTUS ESPECIALES</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M65A10   </t>
+          <t xml:space="preserve">M55A10   </t>
         </is>
       </c>
       <c r="D87" s="2" t="inlineStr">
@@ -6210,17 +6210,17 @@
         </is>
       </c>
       <c r="F87" s="3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G87" s="4" t="n">
-        <v>7.99</v>
+        <v>2.99</v>
       </c>
       <c r="H87" s="4" t="n">
-        <v>2.82</v>
+        <v>1.09</v>
       </c>
       <c r="I87" s="2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J87" s="2" t="inlineStr">
@@ -6229,19 +6229,19 @@
         </is>
       </c>
       <c r="K87" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L87" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M87" s="3" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="N87" s="4" t="n">
-        <v>15.98</v>
+        <v>23.92</v>
       </c>
       <c r="O87" s="4" t="n">
-        <v>10.34</v>
+        <v>15.2</v>
       </c>
       <c r="P87" s="5" t="inlineStr">
         <is>
@@ -6252,12 +6252,12 @@
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>1501060013</t>
+          <t>1501070007</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>CRASSULA BARKLYI</t>
+          <t>CACTUS ESPECIALES</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
@@ -6276,38 +6276,38 @@
         </is>
       </c>
       <c r="F88" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G88" s="4" t="n">
-        <v>7.49</v>
+        <v>5.49</v>
       </c>
       <c r="H88" s="4" t="n">
-        <v>2.71</v>
+        <v>1.9</v>
       </c>
       <c r="I88" s="2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J88" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 30%</t>
+          <t>REDUCIR 50%</t>
         </is>
       </c>
       <c r="K88" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L88" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M88" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N88" s="4" t="n">
-        <v>7.49</v>
+        <v>16.47</v>
       </c>
       <c r="O88" s="4" t="n">
-        <v>4.78</v>
+        <v>10.77</v>
       </c>
       <c r="P88" s="5" t="inlineStr">
         <is>
@@ -6318,17 +6318,17 @@
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>1501070007</t>
+          <t>1101050001</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>CACTUS ESPECIALES</t>
+          <t>YUCCA</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M55A10   </t>
+          <t xml:space="preserve">M14A30   </t>
         </is>
       </c>
       <c r="D89" s="2" t="inlineStr">
@@ -6342,59 +6342,59 @@
         </is>
       </c>
       <c r="F89" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G89" s="4" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="H89" s="4" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="I89" s="2" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J89" s="2" t="inlineStr">
+        <is>
+          <t>REDUCIR 50%</t>
+        </is>
+      </c>
+      <c r="K89" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M89" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" s="4" t="n">
+        <v>10.95</v>
+      </c>
+      <c r="O89" s="4" t="n">
         <v>8</v>
       </c>
-      <c r="G89" s="4" t="n">
-        <v>2.99</v>
-      </c>
-      <c r="H89" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="I89" s="2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="J89" s="2" t="inlineStr">
-        <is>
-          <t>REDUCIR 30%</t>
-        </is>
-      </c>
-      <c r="K89" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="L89" s="3" t="n">
-        <v>8</v>
-      </c>
-      <c r="M89" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N89" s="4" t="n">
-        <v>23.92</v>
-      </c>
-      <c r="O89" s="4" t="n">
-        <v>15.2</v>
-      </c>
       <c r="P89" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">SEMILLAS ILURO S.L.U.                                                                                                   </t>
+          <t xml:space="preserve">VIVERO LAS FRESAS , S.L.                                                                                                </t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>1501070007</t>
+          <t>1104060001</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>CACTUS ESPECIALES</t>
+          <t>NEPHROLEPIS BOSTON</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M65A10   </t>
+          <t xml:space="preserve">M15COLG  </t>
         </is>
       </c>
       <c r="D90" s="2" t="inlineStr">
@@ -6408,13 +6408,13 @@
         </is>
       </c>
       <c r="F90" s="3" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G90" s="4" t="n">
-        <v>5.49</v>
+        <v>7.99</v>
       </c>
       <c r="H90" s="4" t="n">
-        <v>1.9</v>
+        <v>3.44</v>
       </c>
       <c r="I90" s="2" t="inlineStr">
         <is>
@@ -6423,44 +6423,44 @@
       </c>
       <c r="J90" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 50%</t>
+          <t>MANTENER</t>
         </is>
       </c>
       <c r="K90" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L90" s="3" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="M90" s="3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N90" s="4" t="n">
-        <v>16.47</v>
+        <v>111.86</v>
       </c>
       <c r="O90" s="4" t="n">
-        <v>10.77</v>
+        <v>63.7</v>
       </c>
       <c r="P90" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">SEMILLAS ILURO S.L.U.                                                                                                   </t>
+          <t xml:space="preserve">VIVERO LAS FRESAS , S.L.                                                                                                </t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>1101050001</t>
+          <t>1104060003</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>YUCCA</t>
+          <t>NEPHROLEPIS MACHO (HELECHO)</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M14A30   </t>
+          <t xml:space="preserve">M15COLG  </t>
         </is>
       </c>
       <c r="D91" s="2" t="inlineStr">
@@ -6474,17 +6474,17 @@
         </is>
       </c>
       <c r="F91" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G91" s="4" t="n">
-        <v>10.95</v>
+        <v>12.95</v>
       </c>
       <c r="H91" s="4" t="n">
-        <v>2.95</v>
+        <v>3.34</v>
       </c>
       <c r="I91" s="2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J91" s="2" t="inlineStr">
@@ -6496,16 +6496,16 @@
         <v>1</v>
       </c>
       <c r="L91" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M91" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N91" s="4" t="n">
-        <v>10.95</v>
+        <v>25.9</v>
       </c>
       <c r="O91" s="4" t="n">
-        <v>8</v>
+        <v>19.22</v>
       </c>
       <c r="P91" s="5" t="inlineStr">
         <is>
@@ -6516,17 +6516,17 @@
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>1104060001</t>
+          <t>1106020005</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>NEPHROLEPIS BOSTON</t>
+          <t>ALOCASIA CUCULLATA</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M15COLG  </t>
+          <t xml:space="preserve">C17A60   </t>
         </is>
       </c>
       <c r="D92" s="2" t="inlineStr">
@@ -6540,38 +6540,38 @@
         </is>
       </c>
       <c r="F92" s="3" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G92" s="4" t="n">
-        <v>7.99</v>
+        <v>29.99</v>
       </c>
       <c r="H92" s="4" t="n">
-        <v>3.44</v>
+        <v>5.69</v>
       </c>
       <c r="I92" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J92" s="2" t="inlineStr">
         <is>
-          <t>MANTENER</t>
+          <t>REDUCIR 50%</t>
         </is>
       </c>
       <c r="K92" s="3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L92" s="3" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="M92" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N92" s="4" t="n">
-        <v>111.86</v>
+        <v>29.99</v>
       </c>
       <c r="O92" s="4" t="n">
-        <v>63.7</v>
+        <v>24.3</v>
       </c>
       <c r="P92" s="5" t="inlineStr">
         <is>
@@ -6582,17 +6582,17 @@
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>1104060003</t>
+          <t>1108140004</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>NEPHROLEPIS MACHO (HELECHO)</t>
+          <t>PLECTRANTHUS AUSTRALIS (PLANTA DEL DINERO)</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M15COLG  </t>
+          <t xml:space="preserve">M105A20  </t>
         </is>
       </c>
       <c r="D93" s="2" t="inlineStr">
@@ -6606,13 +6606,13 @@
         </is>
       </c>
       <c r="F93" s="3" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G93" s="4" t="n">
-        <v>12.95</v>
+        <v>0</v>
       </c>
       <c r="H93" s="4" t="n">
-        <v>3.34</v>
+        <v>0</v>
       </c>
       <c r="I93" s="2" t="inlineStr">
         <is>
@@ -6621,23 +6621,23 @@
       </c>
       <c r="J93" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 50%</t>
+          <t>AUMENTAR 19%</t>
         </is>
       </c>
       <c r="K93" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L93" s="3" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="M93" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N93" s="4" t="n">
-        <v>25.9</v>
+        <v>0</v>
       </c>
       <c r="O93" s="4" t="n">
-        <v>19.22</v>
+        <v>0</v>
       </c>
       <c r="P93" s="5" t="inlineStr">
         <is>
@@ -6648,17 +6648,17 @@
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>1106020005</t>
+          <t>1306040001</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>ALOCASIA CUCULLATA</t>
+          <t>BEGONIA ELATIOR</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">C17A60   </t>
+          <t xml:space="preserve">M15A25   </t>
         </is>
       </c>
       <c r="D94" s="2" t="inlineStr">
@@ -6672,38 +6672,38 @@
         </is>
       </c>
       <c r="F94" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G94" s="4" t="n">
-        <v>29.99</v>
+        <v>8.99</v>
       </c>
       <c r="H94" s="4" t="n">
-        <v>5.69</v>
+        <v>3.3</v>
       </c>
       <c r="I94" s="2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J94" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 50%</t>
+          <t>AUMENTAR 19%</t>
         </is>
       </c>
       <c r="K94" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L94" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M94" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N94" s="4" t="n">
-        <v>29.99</v>
+        <v>26.97</v>
       </c>
       <c r="O94" s="4" t="n">
-        <v>24.3</v>
+        <v>17.07</v>
       </c>
       <c r="P94" s="5" t="inlineStr">
         <is>
@@ -6714,17 +6714,17 @@
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>1108140004</t>
+          <t>1101030015</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>PLECTRANTHUS AUSTRALIS (PLANTA DEL DINERO)</t>
+          <t>DRACAENA MARGINATA BICOLOR</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M105A20  </t>
+          <t xml:space="preserve">M14A15   </t>
         </is>
       </c>
       <c r="D95" s="2" t="inlineStr">
@@ -6738,13 +6738,13 @@
         </is>
       </c>
       <c r="F95" s="3" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="G95" s="4" t="n">
-        <v>0</v>
+        <v>5.99</v>
       </c>
       <c r="H95" s="4" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="I95" s="2" t="inlineStr">
         <is>
@@ -6753,44 +6753,44 @@
       </c>
       <c r="J95" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 19%</t>
+          <t>AUMENTAR 39%</t>
         </is>
       </c>
       <c r="K95" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L95" s="3" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="M95" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N95" s="4" t="n">
-        <v>0</v>
+        <v>23.96</v>
       </c>
       <c r="O95" s="4" t="n">
-        <v>0</v>
+        <v>14.52</v>
       </c>
       <c r="P95" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">VIVERO LAS FRESAS , S.L.                                                                                                </t>
+          <t xml:space="preserve">VIVEROS ECOPLANT SL                                                                                                     </t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>1306040001</t>
+          <t>1101030028</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>BEGONIA ELATIOR</t>
+          <t>DRACAENA HAWAIIAN SUNSHINE 2 TRONCOS</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M15A25   </t>
+          <t xml:space="preserve">C17A230  </t>
         </is>
       </c>
       <c r="D96" s="2" t="inlineStr">
@@ -6804,59 +6804,59 @@
         </is>
       </c>
       <c r="F96" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G96" s="4" t="n">
-        <v>8.99</v>
+        <v>22.29</v>
       </c>
       <c r="H96" s="4" t="n">
-        <v>3.3</v>
+        <v>7.98</v>
       </c>
       <c r="I96" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J96" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 19%</t>
+          <t>REDUCIR 50%</t>
         </is>
       </c>
       <c r="K96" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L96" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M96" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N96" s="4" t="n">
-        <v>26.97</v>
+        <v>22.29</v>
       </c>
       <c r="O96" s="4" t="n">
-        <v>17.07</v>
+        <v>14.31</v>
       </c>
       <c r="P96" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">VIVERO LAS FRESAS , S.L.                                                                                                </t>
+          <t xml:space="preserve">VIVEROS ECOPLANT SL                                                                                                     </t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>1101030015</t>
+          <t>1102010024</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>DRACAENA MARGINATA BICOLOR</t>
+          <t>FICUS ELASTICA ADBIJAN 3 PLANTAS</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M14A15   </t>
+          <t xml:space="preserve">C20A90   </t>
         </is>
       </c>
       <c r="D97" s="2" t="inlineStr">
@@ -6873,10 +6873,10 @@
         <v>4</v>
       </c>
       <c r="G97" s="4" t="n">
-        <v>5.99</v>
+        <v>28.99</v>
       </c>
       <c r="H97" s="4" t="n">
-        <v>2.36</v>
+        <v>10.58</v>
       </c>
       <c r="I97" s="2" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
       </c>
       <c r="J97" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 39%</t>
+          <t>MANTENER</t>
         </is>
       </c>
       <c r="K97" s="3" t="n">
@@ -6898,10 +6898,10 @@
         <v>0</v>
       </c>
       <c r="N97" s="4" t="n">
-        <v>23.96</v>
+        <v>115.96</v>
       </c>
       <c r="O97" s="4" t="n">
-        <v>14.52</v>
+        <v>73.64</v>
       </c>
       <c r="P97" s="5" t="inlineStr">
         <is>
@@ -6912,17 +6912,17 @@
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>1101030028</t>
+          <t>1103020001</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>DRACAENA HAWAIIAN SUNSHINE 2 TRONCOS</t>
+          <t>CHAMAEDOREA</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">C17A230  </t>
+          <t xml:space="preserve">M6A20    </t>
         </is>
       </c>
       <c r="D98" s="2" t="inlineStr">
@@ -6936,38 +6936,38 @@
         </is>
       </c>
       <c r="F98" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G98" s="4" t="n">
-        <v>22.29</v>
+        <v>3.99</v>
       </c>
       <c r="H98" s="4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I98" s="2" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J98" s="2" t="inlineStr">
+        <is>
+          <t>REDUCIR 25%</t>
+        </is>
+      </c>
+      <c r="K98" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M98" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" s="4" t="n">
         <v>7.98</v>
       </c>
-      <c r="I98" s="2" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="J98" s="2" t="inlineStr">
-        <is>
-          <t>REDUCIR 50%</t>
-        </is>
-      </c>
-      <c r="K98" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L98" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N98" s="4" t="n">
-        <v>22.29</v>
-      </c>
       <c r="O98" s="4" t="n">
-        <v>14.31</v>
+        <v>4.79</v>
       </c>
       <c r="P98" s="5" t="inlineStr">
         <is>
@@ -6978,17 +6978,17 @@
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>1102010024</t>
+          <t>1105050001</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>FICUS ELASTICA ADBIJAN 3 PLANTAS</t>
+          <t>MONSTERA</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">C20A90   </t>
+          <t xml:space="preserve">C17A50   </t>
         </is>
       </c>
       <c r="D99" s="2" t="inlineStr">
@@ -7002,13 +7002,13 @@
         </is>
       </c>
       <c r="F99" s="3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G99" s="4" t="n">
-        <v>28.99</v>
+        <v>19.95</v>
       </c>
       <c r="H99" s="4" t="n">
-        <v>10.58</v>
+        <v>4.78</v>
       </c>
       <c r="I99" s="2" t="inlineStr">
         <is>
@@ -7017,23 +7017,23 @@
       </c>
       <c r="J99" s="2" t="inlineStr">
         <is>
-          <t>MANTENER</t>
+          <t>REDUCIR 9%</t>
         </is>
       </c>
       <c r="K99" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="L99" s="3" t="n">
-        <v>4</v>
-      </c>
       <c r="M99" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N99" s="4" t="n">
-        <v>115.96</v>
+        <v>39.9</v>
       </c>
       <c r="O99" s="4" t="n">
-        <v>73.64</v>
+        <v>30.34</v>
       </c>
       <c r="P99" s="5" t="inlineStr">
         <is>
@@ -7044,17 +7044,17 @@
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>1103020001</t>
+          <t>1105050020</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>CHAMAEDOREA</t>
+          <t>PHILODENDRON BRASIL</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M6A20    </t>
+          <t xml:space="preserve">M15A25   </t>
         </is>
       </c>
       <c r="D100" s="2" t="inlineStr">
@@ -7068,13 +7068,13 @@
         </is>
       </c>
       <c r="F100" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G100" s="4" t="n">
-        <v>3.99</v>
+        <v>10.5</v>
       </c>
       <c r="H100" s="4" t="n">
-        <v>1.6</v>
+        <v>4.05</v>
       </c>
       <c r="I100" s="2" t="inlineStr">
         <is>
@@ -7083,23 +7083,23 @@
       </c>
       <c r="J100" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 25%</t>
+          <t>AUMENTAR 19%</t>
         </is>
       </c>
       <c r="K100" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L100" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M100" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N100" s="4" t="n">
-        <v>7.98</v>
+        <v>10.5</v>
       </c>
       <c r="O100" s="4" t="n">
-        <v>4.79</v>
+        <v>6.45</v>
       </c>
       <c r="P100" s="5" t="inlineStr">
         <is>
@@ -7110,17 +7110,17 @@
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>1105050001</t>
+          <t>1106060001</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>MONSTERA</t>
+          <t>CROTON PETRA</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">C17A50   </t>
+          <t xml:space="preserve">C17A55   </t>
         </is>
       </c>
       <c r="D101" s="2" t="inlineStr">
@@ -7137,10 +7137,10 @@
         <v>2</v>
       </c>
       <c r="G101" s="4" t="n">
-        <v>19.95</v>
+        <v>33.95</v>
       </c>
       <c r="H101" s="4" t="n">
-        <v>4.78</v>
+        <v>12.25</v>
       </c>
       <c r="I101" s="2" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
       </c>
       <c r="J101" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 9%</t>
+          <t>AUMENTAR 19%</t>
         </is>
       </c>
       <c r="K101" s="3" t="n">
@@ -7162,10 +7162,10 @@
         <v>0</v>
       </c>
       <c r="N101" s="4" t="n">
-        <v>39.9</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="O101" s="4" t="n">
-        <v>30.34</v>
+        <v>43.4</v>
       </c>
       <c r="P101" s="5" t="inlineStr">
         <is>
@@ -7176,17 +7176,17 @@
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>1105050020</t>
+          <t>1106060003</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>PHILODENDRON BRASIL</t>
+          <t>CROTON MIX</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M15A25   </t>
+          <t xml:space="preserve">M15A20   </t>
         </is>
       </c>
       <c r="D102" s="2" t="inlineStr">
@@ -7203,10 +7203,10 @@
         <v>1</v>
       </c>
       <c r="G102" s="4" t="n">
-        <v>10.5</v>
+        <v>9.25</v>
       </c>
       <c r="H102" s="4" t="n">
-        <v>4.05</v>
+        <v>3.34</v>
       </c>
       <c r="I102" s="2" t="inlineStr">
         <is>
@@ -7228,10 +7228,10 @@
         <v>0</v>
       </c>
       <c r="N102" s="4" t="n">
-        <v>10.5</v>
+        <v>9.25</v>
       </c>
       <c r="O102" s="4" t="n">
-        <v>6.45</v>
+        <v>5.91</v>
       </c>
       <c r="P102" s="5" t="inlineStr">
         <is>
@@ -7242,17 +7242,17 @@
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>1106060001</t>
+          <t>1106070001</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>CROTON PETRA</t>
+          <t>DIEFFENBACHIA TROPIC LEMON</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">C17A55   </t>
+          <t xml:space="preserve">C17A80   </t>
         </is>
       </c>
       <c r="D103" s="2" t="inlineStr">
@@ -7269,10 +7269,10 @@
         <v>2</v>
       </c>
       <c r="G103" s="4" t="n">
-        <v>33.95</v>
+        <v>19.95</v>
       </c>
       <c r="H103" s="4" t="n">
-        <v>12.25</v>
+        <v>7.23</v>
       </c>
       <c r="I103" s="2" t="inlineStr">
         <is>
@@ -7294,10 +7294,10 @@
         <v>0</v>
       </c>
       <c r="N103" s="4" t="n">
-        <v>67.90000000000001</v>
+        <v>39.9</v>
       </c>
       <c r="O103" s="4" t="n">
-        <v>43.4</v>
+        <v>25.44</v>
       </c>
       <c r="P103" s="5" t="inlineStr">
         <is>
@@ -7308,17 +7308,17 @@
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>1106060003</t>
+          <t>1106130005</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>CROTON MIX</t>
+          <t>POTHOS TUTOR (EPIPREMNUM PINNATUM)</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M15A20   </t>
+          <t xml:space="preserve">C20A100  </t>
         </is>
       </c>
       <c r="D104" s="2" t="inlineStr">
@@ -7332,38 +7332,38 @@
         </is>
       </c>
       <c r="F104" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G104" s="4" t="n">
-        <v>9.25</v>
+        <v>45.95</v>
       </c>
       <c r="H104" s="4" t="n">
-        <v>3.34</v>
+        <v>16.75</v>
       </c>
       <c r="I104" s="2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J104" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 19%</t>
+          <t>REDUCIR 30%</t>
         </is>
       </c>
       <c r="K104" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L104" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M104" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N104" s="4" t="n">
-        <v>9.25</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="O104" s="4" t="n">
-        <v>5.91</v>
+        <v>58.4</v>
       </c>
       <c r="P104" s="5" t="inlineStr">
         <is>
@@ -7374,17 +7374,17 @@
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>1106070001</t>
+          <t>1108020003</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>DIEFFENBACHIA TROPIC LEMON</t>
+          <t>CHLOROPHYTUM (CINTAS)</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">C17A80   </t>
+          <t xml:space="preserve">M15COLG  </t>
         </is>
       </c>
       <c r="D105" s="2" t="inlineStr">
@@ -7398,38 +7398,38 @@
         </is>
       </c>
       <c r="F105" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G105" s="4" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="H105" s="4" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="I105" s="2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J105" s="2" t="inlineStr">
+        <is>
+          <t>AUMENTAR 19%</t>
+        </is>
+      </c>
+      <c r="K105" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G105" s="4" t="n">
-        <v>19.95</v>
-      </c>
-      <c r="H105" s="4" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="I105" s="2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="J105" s="2" t="inlineStr">
-        <is>
-          <t>AUMENTAR 19%</t>
-        </is>
-      </c>
-      <c r="K105" s="3" t="n">
-        <v>1</v>
-      </c>
       <c r="L105" s="3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M105" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N105" s="4" t="n">
-        <v>39.9</v>
+        <v>39.95</v>
       </c>
       <c r="O105" s="4" t="n">
-        <v>25.44</v>
+        <v>25.6</v>
       </c>
       <c r="P105" s="5" t="inlineStr">
         <is>
@@ -7440,17 +7440,17 @@
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>1106130005</t>
+          <t>1108060002</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>POTHOS TUTOR (EPIPREMNUM PINNATUM)</t>
+          <t>HEDERA BICOLOR</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">C20A100  </t>
+          <t xml:space="preserve">M15COLG  </t>
         </is>
       </c>
       <c r="D106" s="2" t="inlineStr">
@@ -7464,13 +7464,13 @@
         </is>
       </c>
       <c r="F106" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G106" s="4" t="n">
-        <v>45.95</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="H106" s="4" t="n">
-        <v>16.75</v>
+        <v>3.48</v>
       </c>
       <c r="I106" s="2" t="inlineStr">
         <is>
@@ -7479,23 +7479,23 @@
       </c>
       <c r="J106" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 30%</t>
+          <t>AUMENTAR 19%</t>
         </is>
       </c>
       <c r="K106" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L106" s="3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M106" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N106" s="4" t="n">
-        <v>91.90000000000001</v>
+        <v>29.85</v>
       </c>
       <c r="O106" s="4" t="n">
-        <v>58.4</v>
+        <v>19.41</v>
       </c>
       <c r="P106" s="5" t="inlineStr">
         <is>
@@ -7506,12 +7506,12 @@
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>1108020003</t>
+          <t>1108130002</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>CHLOROPHYTUM (CINTAS)</t>
+          <t>TRADESCANTIA ZEBRINA</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
@@ -7530,13 +7530,13 @@
         </is>
       </c>
       <c r="F107" s="3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G107" s="4" t="n">
-        <v>7.99</v>
+        <v>9.49</v>
       </c>
       <c r="H107" s="4" t="n">
-        <v>2.87</v>
+        <v>3.32</v>
       </c>
       <c r="I107" s="2" t="inlineStr">
         <is>
@@ -7549,19 +7549,19 @@
         </is>
       </c>
       <c r="K107" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L107" s="3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M107" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N107" s="4" t="n">
-        <v>39.95</v>
+        <v>9.49</v>
       </c>
       <c r="O107" s="4" t="n">
-        <v>25.6</v>
+        <v>6.17</v>
       </c>
       <c r="P107" s="5" t="inlineStr">
         <is>
@@ -7572,17 +7572,17 @@
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>1108060002</t>
+          <t>1306270007</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>HEDERA BICOLOR</t>
+          <t>ZANTEDESCHIA</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M15COLG  </t>
+          <t xml:space="preserve">C17A60   </t>
         </is>
       </c>
       <c r="D108" s="2" t="inlineStr">
@@ -7596,38 +7596,38 @@
         </is>
       </c>
       <c r="F108" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G108" s="4" t="n">
-        <v>9.949999999999999</v>
+        <v>19.99</v>
       </c>
       <c r="H108" s="4" t="n">
-        <v>3.48</v>
+        <v>5.07</v>
       </c>
       <c r="I108" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J108" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 19%</t>
+          <t>REDUCIR 50%</t>
         </is>
       </c>
       <c r="K108" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L108" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M108" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N108" s="4" t="n">
-        <v>29.85</v>
+        <v>19.99</v>
       </c>
       <c r="O108" s="4" t="n">
-        <v>19.41</v>
+        <v>14.92</v>
       </c>
       <c r="P108" s="5" t="inlineStr">
         <is>
@@ -7638,17 +7638,17 @@
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>1108130002</t>
+          <t>1306270014</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>TRADESCANTIA ZEBRINA</t>
+          <t>ADENIUM OBESUM</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M15COLG  </t>
+          <t xml:space="preserve">C20A35   </t>
         </is>
       </c>
       <c r="D109" s="2" t="inlineStr">
@@ -7662,13 +7662,13 @@
         </is>
       </c>
       <c r="F109" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G109" s="4" t="n">
-        <v>9.49</v>
+        <v>26.49</v>
       </c>
       <c r="H109" s="4" t="n">
-        <v>3.32</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="I109" s="2" t="inlineStr">
         <is>
@@ -7677,23 +7677,23 @@
       </c>
       <c r="J109" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 19%</t>
+          <t>REDUCIR 35%</t>
         </is>
       </c>
       <c r="K109" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L109" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M109" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N109" s="4" t="n">
-        <v>9.49</v>
+        <v>52.98</v>
       </c>
       <c r="O109" s="4" t="n">
-        <v>6.17</v>
+        <v>35.56</v>
       </c>
       <c r="P109" s="5" t="inlineStr">
         <is>
@@ -7704,17 +7704,17 @@
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>1108140009</t>
+          <t>1306270014</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>POTHO COLGANTE</t>
+          <t>ADENIUM OBESUM</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M15COLG  </t>
+          <t xml:space="preserve">M105A25  </t>
         </is>
       </c>
       <c r="D110" s="2" t="inlineStr">
@@ -7728,13 +7728,13 @@
         </is>
       </c>
       <c r="F110" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G110" s="4" t="n">
-        <v>8.85</v>
+        <v>6.99</v>
       </c>
       <c r="H110" s="4" t="n">
-        <v>3.37</v>
+        <v>2.8</v>
       </c>
       <c r="I110" s="2" t="inlineStr">
         <is>
@@ -7743,23 +7743,23 @@
       </c>
       <c r="J110" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 50%</t>
+          <t>REDUCIR 15%</t>
         </is>
       </c>
       <c r="K110" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L110" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M110" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N110" s="4" t="n">
-        <v>8.85</v>
+        <v>27.96</v>
       </c>
       <c r="O110" s="4" t="n">
-        <v>5.48</v>
+        <v>16.76</v>
       </c>
       <c r="P110" s="5" t="inlineStr">
         <is>
@@ -7770,12 +7770,12 @@
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>1306270007</t>
+          <t>1306270022</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>ZANTEDESCHIA</t>
+          <t>ZANTEDESCHIA PRINCE AEMEL</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
@@ -7797,19 +7797,19 @@
         <v>1</v>
       </c>
       <c r="G111" s="4" t="n">
-        <v>19.99</v>
+        <v>16.99</v>
       </c>
       <c r="H111" s="4" t="n">
-        <v>5.07</v>
+        <v>6.89</v>
       </c>
       <c r="I111" s="2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J111" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 50%</t>
+          <t>REDUCIR 25%</t>
         </is>
       </c>
       <c r="K111" s="3" t="n">
@@ -7822,10 +7822,10 @@
         <v>0</v>
       </c>
       <c r="N111" s="4" t="n">
-        <v>19.99</v>
+        <v>16.99</v>
       </c>
       <c r="O111" s="4" t="n">
-        <v>14.92</v>
+        <v>10.1</v>
       </c>
       <c r="P111" s="5" t="inlineStr">
         <is>
@@ -7836,17 +7836,17 @@
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>1306270014</t>
+          <t>1306270024</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>ADENIUM OBESUM</t>
+          <t>STRELITZIA AUGUSTA 3 PLANTAS</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">C20A35   </t>
+          <t xml:space="preserve">C20A390  </t>
         </is>
       </c>
       <c r="D112" s="2" t="inlineStr">
@@ -7863,10 +7863,10 @@
         <v>2</v>
       </c>
       <c r="G112" s="4" t="n">
-        <v>26.49</v>
+        <v>28.95</v>
       </c>
       <c r="H112" s="4" t="n">
-        <v>8.710000000000001</v>
+        <v>11.54</v>
       </c>
       <c r="I112" s="2" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
       </c>
       <c r="J112" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 35%</t>
+          <t>REDUCIR 25%</t>
         </is>
       </c>
       <c r="K112" s="3" t="n">
@@ -7888,10 +7888,10 @@
         <v>0</v>
       </c>
       <c r="N112" s="4" t="n">
-        <v>52.98</v>
+        <v>57.9</v>
       </c>
       <c r="O112" s="4" t="n">
-        <v>35.56</v>
+        <v>34.82</v>
       </c>
       <c r="P112" s="5" t="inlineStr">
         <is>
@@ -7902,17 +7902,17 @@
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>1306270014</t>
+          <t>1501060001</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>ADENIUM OBESUM</t>
+          <t>PLANTA CRASA</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M105A25  </t>
+          <t xml:space="preserve">M85A15   </t>
         </is>
       </c>
       <c r="D113" s="2" t="inlineStr">
@@ -7926,13 +7926,13 @@
         </is>
       </c>
       <c r="F113" s="3" t="n">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G113" s="4" t="n">
-        <v>6.99</v>
+        <v>2.5</v>
       </c>
       <c r="H113" s="4" t="n">
-        <v>2.8</v>
+        <v>0.88</v>
       </c>
       <c r="I113" s="2" t="inlineStr">
         <is>
@@ -7941,23 +7941,23 @@
       </c>
       <c r="J113" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 15%</t>
+          <t>AUMENTAR 19%</t>
         </is>
       </c>
       <c r="K113" s="3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="L113" s="3" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="M113" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N113" s="4" t="n">
-        <v>27.96</v>
+        <v>55</v>
       </c>
       <c r="O113" s="4" t="n">
-        <v>16.76</v>
+        <v>35.64</v>
       </c>
       <c r="P113" s="5" t="inlineStr">
         <is>
@@ -7968,17 +7968,17 @@
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>1306270022</t>
+          <t>1501060001</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>ZANTEDESCHIA PRINCE AEMEL</t>
+          <t>PLANTA CRASA</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">C17A60   </t>
+          <t xml:space="preserve">M13A15   </t>
         </is>
       </c>
       <c r="D114" s="2" t="inlineStr">
@@ -7992,13 +7992,13 @@
         </is>
       </c>
       <c r="F114" s="3" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="G114" s="4" t="n">
-        <v>16.99</v>
+        <v>4.49</v>
       </c>
       <c r="H114" s="4" t="n">
-        <v>6.89</v>
+        <v>1.8</v>
       </c>
       <c r="I114" s="2" t="inlineStr">
         <is>
@@ -8007,23 +8007,23 @@
       </c>
       <c r="J114" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 25%</t>
+          <t>AUMENTAR 19%</t>
         </is>
       </c>
       <c r="K114" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L114" s="3" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="M114" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N114" s="4" t="n">
-        <v>16.99</v>
+        <v>49.39</v>
       </c>
       <c r="O114" s="4" t="n">
-        <v>10.1</v>
+        <v>29.63</v>
       </c>
       <c r="P114" s="5" t="inlineStr">
         <is>
@@ -8034,17 +8034,17 @@
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>1306270024</t>
+          <t>1501060001</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>STRELITZIA AUGUSTA 3 PLANTAS</t>
+          <t>PLANTA CRASA</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">C20A390  </t>
+          <t xml:space="preserve">M55A10   </t>
         </is>
       </c>
       <c r="D115" s="2" t="inlineStr">
@@ -8058,13 +8058,13 @@
         </is>
       </c>
       <c r="F115" s="3" t="n">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="G115" s="4" t="n">
-        <v>28.95</v>
+        <v>1.15</v>
       </c>
       <c r="H115" s="4" t="n">
-        <v>11.54</v>
+        <v>0.44</v>
       </c>
       <c r="I115" s="2" t="inlineStr">
         <is>
@@ -8073,23 +8073,23 @@
       </c>
       <c r="J115" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 25%</t>
+          <t>MANTENER</t>
         </is>
       </c>
       <c r="K115" s="3" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="L115" s="3" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="M115" s="3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N115" s="4" t="n">
-        <v>57.9</v>
+        <v>31.05</v>
       </c>
       <c r="O115" s="4" t="n">
-        <v>34.82</v>
+        <v>19.17</v>
       </c>
       <c r="P115" s="5" t="inlineStr">
         <is>
@@ -8100,17 +8100,17 @@
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>1501060001</t>
+          <t>1502090007</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>PLANTA CRASA</t>
+          <t>CRASSULA OVATA</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M85A15   </t>
+          <t xml:space="preserve">C20A20   </t>
         </is>
       </c>
       <c r="D116" s="2" t="inlineStr">
@@ -8124,13 +8124,13 @@
         </is>
       </c>
       <c r="F116" s="3" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="G116" s="4" t="n">
-        <v>2.5</v>
+        <v>23.99</v>
       </c>
       <c r="H116" s="4" t="n">
-        <v>0.88</v>
+        <v>8.69</v>
       </c>
       <c r="I116" s="2" t="inlineStr">
         <is>
@@ -8139,23 +8139,23 @@
       </c>
       <c r="J116" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 19%</t>
+          <t>MANTENER</t>
         </is>
       </c>
       <c r="K116" s="3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L116" s="3" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="M116" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N116" s="4" t="n">
-        <v>55</v>
+        <v>47.98</v>
       </c>
       <c r="O116" s="4" t="n">
-        <v>35.64</v>
+        <v>30.6</v>
       </c>
       <c r="P116" s="5" t="inlineStr">
         <is>
@@ -8166,17 +8166,17 @@
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>1501060001</t>
+          <t>1503030000</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>PLANTA CRASA</t>
+          <t>EUPHORBIA TRIGONA</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M13A15   </t>
+          <t xml:space="preserve">C17A40   </t>
         </is>
       </c>
       <c r="D117" s="2" t="inlineStr">
@@ -8190,17 +8190,17 @@
         </is>
       </c>
       <c r="F117" s="3" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G117" s="4" t="n">
-        <v>4.49</v>
+        <v>14.5</v>
       </c>
       <c r="H117" s="4" t="n">
-        <v>1.8</v>
+        <v>5.17</v>
       </c>
       <c r="I117" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J117" s="2" t="inlineStr">
@@ -8209,19 +8209,19 @@
         </is>
       </c>
       <c r="K117" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L117" s="3" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="M117" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N117" s="4" t="n">
-        <v>49.39</v>
+        <v>43.5</v>
       </c>
       <c r="O117" s="4" t="n">
-        <v>29.63</v>
+        <v>27.99</v>
       </c>
       <c r="P117" s="5" t="inlineStr">
         <is>
@@ -8232,17 +8232,17 @@
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>1501060001</t>
+          <t>1506010003</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>PLANTA CRASA</t>
+          <t>SANSEVIERA LAURENTTI</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M55A10   </t>
+          <t xml:space="preserve">M14A45   </t>
         </is>
       </c>
       <c r="D118" s="2" t="inlineStr">
@@ -8256,13 +8256,13 @@
         </is>
       </c>
       <c r="F118" s="3" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="G118" s="4" t="n">
-        <v>1.15</v>
+        <v>22.95</v>
       </c>
       <c r="H118" s="4" t="n">
-        <v>0.44</v>
+        <v>6.4</v>
       </c>
       <c r="I118" s="2" t="inlineStr">
         <is>
@@ -8275,19 +8275,19 @@
         </is>
       </c>
       <c r="K118" s="3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="L118" s="3" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="M118" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N118" s="4" t="n">
-        <v>31.05</v>
+        <v>114.75</v>
       </c>
       <c r="O118" s="4" t="n">
-        <v>19.17</v>
+        <v>82.75</v>
       </c>
       <c r="P118" s="5" t="inlineStr">
         <is>
@@ -8298,17 +8298,17 @@
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>1502090007</t>
+          <t>1507020003</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>CRASSULA OVATA</t>
+          <t>CACTUS COLA DE MONO</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">C20A20   </t>
+          <t xml:space="preserve">M9COLG   </t>
         </is>
       </c>
       <c r="D119" s="2" t="inlineStr">
@@ -8322,13 +8322,13 @@
         </is>
       </c>
       <c r="F119" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G119" s="4" t="n">
-        <v>23.99</v>
+        <v>3.45</v>
       </c>
       <c r="H119" s="4" t="n">
-        <v>8.69</v>
+        <v>1.22</v>
       </c>
       <c r="I119" s="2" t="inlineStr">
         <is>
@@ -8337,23 +8337,23 @@
       </c>
       <c r="J119" s="2" t="inlineStr">
         <is>
-          <t>MANTENER</t>
+          <t>REDUCIR 15%</t>
         </is>
       </c>
       <c r="K119" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L119" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M119" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N119" s="4" t="n">
-        <v>47.98</v>
+        <v>3.45</v>
       </c>
       <c r="O119" s="4" t="n">
-        <v>30.6</v>
+        <v>2.23</v>
       </c>
       <c r="P119" s="5" t="inlineStr">
         <is>
@@ -8361,344 +8361,146 @@
         </is>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="2" t="inlineStr">
-        <is>
-          <t>1503030000</t>
-        </is>
-      </c>
-      <c r="B120" s="2" t="inlineStr">
-        <is>
-          <t>EUPHORBIA TRIGONA</t>
-        </is>
-      </c>
-      <c r="C120" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C17A40   </t>
-        </is>
-      </c>
-      <c r="D120" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">UNICO   </t>
-        </is>
-      </c>
-      <c r="E120" s="2" t="inlineStr">
-        <is>
-          <t>interior</t>
-        </is>
-      </c>
-      <c r="F120" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G120" s="4" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="H120" s="4" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="I120" s="2" t="inlineStr">
-        <is>
-          <t>B</t>
-        </is>
-      </c>
-      <c r="J120" s="2" t="inlineStr">
-        <is>
-          <t>AUMENTAR 19%</t>
-        </is>
-      </c>
-      <c r="K120" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L120" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="M120" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N120" s="4" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="O120" s="4" t="n">
-        <v>27.99</v>
-      </c>
-      <c r="P120" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">VIVEROS ECOPLANT SL                                                                                                     </t>
-        </is>
-      </c>
-    </row>
     <row r="121">
-      <c r="A121" s="2" t="inlineStr">
-        <is>
-          <t>1506010003</t>
-        </is>
-      </c>
-      <c r="B121" s="2" t="inlineStr">
-        <is>
-          <t>SANSEVIERA LAURENTTI</t>
-        </is>
-      </c>
-      <c r="C121" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">M14A45   </t>
-        </is>
-      </c>
-      <c r="D121" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">UNICO   </t>
-        </is>
-      </c>
-      <c r="E121" s="2" t="inlineStr">
-        <is>
-          <t>interior</t>
-        </is>
-      </c>
-      <c r="F121" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="G121" s="4" t="n">
-        <v>22.95</v>
-      </c>
-      <c r="H121" s="4" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="I121" s="2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="J121" s="2" t="inlineStr">
-        <is>
-          <t>MANTENER</t>
-        </is>
-      </c>
-      <c r="K121" s="3" t="n">
-        <v>2</v>
-      </c>
-      <c r="L121" s="3" t="n">
-        <v>5</v>
-      </c>
-      <c r="M121" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N121" s="4" t="n">
-        <v>114.75</v>
-      </c>
-      <c r="O121" s="4" t="n">
-        <v>82.75</v>
-      </c>
-      <c r="P121" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">VIVEROS ECOPLANT SL                                                                                                     </t>
+      <c r="B121" s="6" t="inlineStr">
+        <is>
+          <t>METRICAS DE RESUMEN</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="2" t="inlineStr">
-        <is>
-          <t>1507020003</t>
-        </is>
-      </c>
-      <c r="B122" s="2" t="inlineStr">
-        <is>
-          <t>CACTUS COLA DE MONO</t>
-        </is>
-      </c>
-      <c r="C122" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">M9COLG   </t>
-        </is>
-      </c>
-      <c r="D122" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">UNICO   </t>
-        </is>
-      </c>
-      <c r="E122" s="2" t="inlineStr">
-        <is>
-          <t>interior</t>
-        </is>
-      </c>
-      <c r="F122" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G122" s="4" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="H122" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="I122" s="2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="J122" s="2" t="inlineStr">
-        <is>
-          <t>REDUCIR 15%</t>
-        </is>
-      </c>
-      <c r="K122" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L122" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N122" s="4" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="O122" s="4" t="n">
-        <v>2.23</v>
-      </c>
-      <c r="P122" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">VIVEROS ECOPLANT SL                                                                                                     </t>
-        </is>
+      <c r="B122" s="7" t="inlineStr">
+        <is>
+          <t>Total_Unidades:</t>
+        </is>
+      </c>
+      <c r="C122" s="8" t="n">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="B123" s="7" t="inlineStr">
+        <is>
+          <t>Total_Articulos:</t>
+        </is>
+      </c>
+      <c r="C123" s="8" t="n">
+        <v>118</v>
       </c>
     </row>
     <row r="124">
-      <c r="B124" s="6" t="inlineStr">
-        <is>
-          <t>METRICAS DE RESUMEN</t>
+      <c r="B124" s="7" t="inlineStr">
+        <is>
+          <t>Total_Importe:</t>
+        </is>
+      </c>
+      <c r="C124" s="8" t="inlineStr">
+        <is>
+          <t>3828.83€</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="B125" s="7" t="inlineStr">
         <is>
-          <t>Total_Unidades:</t>
-        </is>
-      </c>
-      <c r="C125" s="8" t="n">
-        <v>454</v>
+          <t>Objetivo_Semana:</t>
+        </is>
+      </c>
+      <c r="C125" s="8" t="inlineStr">
+        <is>
+          <t>2930.63€</t>
+        </is>
       </c>
     </row>
     <row r="126">
       <c r="B126" s="7" t="inlineStr">
         <is>
-          <t>Total_Articulos:</t>
-        </is>
-      </c>
-      <c r="C126" s="8" t="n">
-        <v>121</v>
+          <t>Factor_Crecimiento:</t>
+        </is>
+      </c>
+      <c r="C126" s="8" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
       </c>
     </row>
     <row r="127">
       <c r="B127" s="7" t="inlineStr">
         <is>
-          <t>Total_Importe:</t>
+          <t>Factor_Festivo:</t>
         </is>
       </c>
       <c r="C127" s="8" t="inlineStr">
         <is>
-          <t>3855.17€</t>
+          <t>25%</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="B128" s="7" t="inlineStr">
         <is>
-          <t>Objetivo_Semana:</t>
-        </is>
-      </c>
-      <c r="C128" s="8" t="inlineStr">
-        <is>
-          <t>2930.63€</t>
-        </is>
+          <t>Articulos_A:</t>
+        </is>
+      </c>
+      <c r="C128" s="8" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="129">
       <c r="B129" s="7" t="inlineStr">
         <is>
-          <t>Factor_Crecimiento:</t>
-        </is>
-      </c>
-      <c r="C129" s="8" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
+          <t>Articulos_B:</t>
+        </is>
+      </c>
+      <c r="C129" s="8" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="130">
       <c r="B130" s="7" t="inlineStr">
         <is>
-          <t>Factor_Festivo:</t>
-        </is>
-      </c>
-      <c r="C130" s="8" t="inlineStr">
-        <is>
-          <t>25%</t>
-        </is>
+          <t>Articulos_C:</t>
+        </is>
+      </c>
+      <c r="C130" s="8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="131">
       <c r="B131" s="7" t="inlineStr">
         <is>
-          <t>Articulos_A:</t>
-        </is>
-      </c>
-      <c r="C131" s="8" t="n">
-        <v>76</v>
+          <t>Stock_Minimo_%:</t>
+        </is>
+      </c>
+      <c r="C131" s="8" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
       </c>
     </row>
     <row r="132">
       <c r="B132" s="7" t="inlineStr">
         <is>
-          <t>Articulos_B:</t>
+          <t>Stock_Minimo_Objetivo:</t>
         </is>
       </c>
       <c r="C132" s="8" t="n">
-        <v>38</v>
+        <v>196</v>
       </c>
     </row>
     <row r="133">
       <c r="B133" s="7" t="inlineStr">
         <is>
-          <t>Articulos_C:</t>
+          <t>Total_Ajuste_Stock:</t>
         </is>
       </c>
       <c r="C133" s="8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="B134" s="7" t="inlineStr">
-        <is>
-          <t>Stock_Minimo_%:</t>
-        </is>
-      </c>
-      <c r="C134" s="8" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="B135" s="7" t="inlineStr">
-        <is>
-          <t>Stock_Minimo_Objetivo:</t>
-        </is>
-      </c>
-      <c r="C135" s="8" t="n">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="B136" s="7" t="inlineStr">
-        <is>
-          <t>Total_Ajuste_Stock:</t>
-        </is>
-      </c>
-      <c r="C136" s="8" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="B121:C121"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/output/Pedido_Semana_14_2026-02-03_interior.xlsx
+++ b/data/output/Pedido_Semana_14_2026-02-03_interior.xlsx
@@ -465,7 +465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P133"/>
+  <dimension ref="A1:P136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -820,10 +820,10 @@
         <v>4</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="M5" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N5" s="4" t="n">
         <v>47.88</v>
@@ -886,10 +886,10 @@
         <v>3</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M6" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N6" s="4" t="n">
         <v>80.91</v>
@@ -952,10 +952,10 @@
         <v>4</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M7" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="4" t="n">
         <v>22.75</v>
@@ -1084,10 +1084,10 @@
         <v>9</v>
       </c>
       <c r="L9" s="3" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="M9" s="3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="N9" s="4" t="n">
         <v>32.2</v>
@@ -1150,10 +1150,10 @@
         <v>4</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M10" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="4" t="n">
         <v>27.5</v>
@@ -1810,10 +1810,10 @@
         <v>1</v>
       </c>
       <c r="L20" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M20" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" s="4" t="n">
         <v>9.99</v>
@@ -2008,10 +2008,10 @@
         <v>1</v>
       </c>
       <c r="L23" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M23" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N23" s="4" t="n">
         <v>25.8</v>
@@ -2206,10 +2206,10 @@
         <v>1</v>
       </c>
       <c r="L26" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M26" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N26" s="4" t="n">
         <v>20.97</v>
@@ -2272,10 +2272,10 @@
         <v>1</v>
       </c>
       <c r="L27" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M27" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N27" s="4" t="n">
         <v>4.99</v>
@@ -2338,10 +2338,10 @@
         <v>1</v>
       </c>
       <c r="L28" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M28" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" s="4" t="n">
         <v>4.5</v>
@@ -2404,10 +2404,10 @@
         <v>4</v>
       </c>
       <c r="L29" s="3" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M29" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N29" s="4" t="n">
         <v>32.89</v>
@@ -3394,10 +3394,10 @@
         <v>1</v>
       </c>
       <c r="L44" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M44" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N44" s="4" t="n">
         <v>29.97</v>
@@ -4186,10 +4186,10 @@
         <v>1</v>
       </c>
       <c r="L56" s="3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M56" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N56" s="4" t="n">
         <v>20.85</v>
@@ -4252,10 +4252,10 @@
         <v>3</v>
       </c>
       <c r="L57" s="3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M57" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N57" s="4" t="n">
         <v>31.92</v>
@@ -4384,10 +4384,10 @@
         <v>3</v>
       </c>
       <c r="L59" s="3" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M59" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N59" s="4" t="n">
         <v>38.25</v>
@@ -4912,10 +4912,10 @@
         <v>2</v>
       </c>
       <c r="L67" s="3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M67" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N67" s="4" t="n">
         <v>14.6</v>
@@ -4978,10 +4978,10 @@
         <v>1</v>
       </c>
       <c r="L68" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M68" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N68" s="4" t="n">
         <v>5.25</v>
@@ -4998,17 +4998,17 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>1306050001</t>
+          <t>1304010001</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>CALATHEA MIX</t>
+          <t>DIONAEA MISCUPULA</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M14A50   </t>
+          <t xml:space="preserve">M85A10   </t>
         </is>
       </c>
       <c r="D69" s="2" t="inlineStr">
@@ -5025,19 +5025,19 @@
         <v>1</v>
       </c>
       <c r="G69" s="4" t="n">
-        <v>17.95</v>
+        <v>7.99</v>
       </c>
       <c r="H69" s="4" t="n">
-        <v>6.23</v>
+        <v>3.35</v>
       </c>
       <c r="I69" s="2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J69" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 50%</t>
+          <t>AUMENTAR 19%</t>
         </is>
       </c>
       <c r="K69" s="3" t="n">
@@ -5050,10 +5050,10 @@
         <v>0</v>
       </c>
       <c r="N69" s="4" t="n">
-        <v>17.95</v>
+        <v>7.99</v>
       </c>
       <c r="O69" s="4" t="n">
-        <v>11.72</v>
+        <v>4.64</v>
       </c>
       <c r="P69" s="5" t="inlineStr">
         <is>
@@ -5064,17 +5064,17 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>1306200001</t>
+          <t>1306040001</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>KALANCHOE BLOSSFELDIANA</t>
+          <t>BEGONIA ELATIOR</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M105A20  </t>
+          <t xml:space="preserve">M14A30   </t>
         </is>
       </c>
       <c r="D70" s="2" t="inlineStr">
@@ -5088,13 +5088,13 @@
         </is>
       </c>
       <c r="F70" s="3" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="G70" s="4" t="n">
-        <v>4.95</v>
+        <v>9.5</v>
       </c>
       <c r="H70" s="4" t="n">
-        <v>1.08</v>
+        <v>3.7</v>
       </c>
       <c r="I70" s="2" t="inlineStr">
         <is>
@@ -5103,23 +5103,23 @@
       </c>
       <c r="J70" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 19%</t>
+          <t>REDUCIR 15%</t>
         </is>
       </c>
       <c r="K70" s="3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L70" s="3" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="M70" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N70" s="4" t="n">
-        <v>94.05</v>
+        <v>9.5</v>
       </c>
       <c r="O70" s="4" t="n">
-        <v>73.53</v>
+        <v>5.8</v>
       </c>
       <c r="P70" s="5" t="inlineStr">
         <is>
@@ -5130,17 +5130,17 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>1306200001</t>
+          <t>1306050001</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>KALANCHOE BLOSSFELDIANA</t>
+          <t>CALATHEA MIX</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M7A15    </t>
+          <t xml:space="preserve">M14A50   </t>
         </is>
       </c>
       <c r="D71" s="2" t="inlineStr">
@@ -5154,38 +5154,38 @@
         </is>
       </c>
       <c r="F71" s="3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G71" s="4" t="n">
-        <v>2.99</v>
+        <v>17.95</v>
       </c>
       <c r="H71" s="4" t="n">
-        <v>1.2</v>
+        <v>6.23</v>
       </c>
       <c r="I71" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J71" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 19%</t>
+          <t>REDUCIR 50%</t>
         </is>
       </c>
       <c r="K71" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L71" s="3" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="M71" s="3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N71" s="4" t="n">
-        <v>20.93</v>
+        <v>17.95</v>
       </c>
       <c r="O71" s="4" t="n">
-        <v>12.56</v>
+        <v>11.72</v>
       </c>
       <c r="P71" s="5" t="inlineStr">
         <is>
@@ -5196,17 +5196,17 @@
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>1306210001</t>
+          <t>1306200001</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>LILIUM MEZCLA</t>
+          <t>KALANCHOE BLOSSFELDIANA</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M13A35   </t>
+          <t xml:space="preserve">M105A20  </t>
         </is>
       </c>
       <c r="D72" s="2" t="inlineStr">
@@ -5220,38 +5220,38 @@
         </is>
       </c>
       <c r="F72" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="G72" s="4" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="H72" s="4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I72" s="2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J72" s="2" t="inlineStr">
+        <is>
+          <t>AUMENTAR 19%</t>
+        </is>
+      </c>
+      <c r="K72" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="G72" s="4" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="H72" s="4" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="I72" s="2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="J72" s="2" t="inlineStr">
-        <is>
-          <t>REDUCIR 35%</t>
-        </is>
-      </c>
-      <c r="K72" s="3" t="n">
-        <v>2</v>
-      </c>
       <c r="L72" s="3" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="M72" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N72" s="4" t="n">
-        <v>47.94</v>
+        <v>94.05</v>
       </c>
       <c r="O72" s="4" t="n">
-        <v>29.58</v>
+        <v>73.53</v>
       </c>
       <c r="P72" s="5" t="inlineStr">
         <is>
@@ -5262,17 +5262,17 @@
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>1306240001</t>
+          <t>1306200001</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>ROSA KORDANA MEZCLA</t>
+          <t>KALANCHOE BLOSSFELDIANA</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M105A20  </t>
+          <t xml:space="preserve">M7A15    </t>
         </is>
       </c>
       <c r="D73" s="2" t="inlineStr">
@@ -5286,38 +5286,38 @@
         </is>
       </c>
       <c r="F73" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G73" s="4" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="H73" s="4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I73" s="2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J73" s="2" t="inlineStr">
+        <is>
+          <t>AUMENTAR 19%</t>
+        </is>
+      </c>
+      <c r="K73" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="G73" s="4" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="H73" s="4" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="I73" s="2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="J73" s="2" t="inlineStr">
-        <is>
-          <t>AUMENTAR 19%</t>
-        </is>
-      </c>
-      <c r="K73" s="3" t="n">
-        <v>1</v>
-      </c>
       <c r="L73" s="3" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="M73" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N73" s="4" t="n">
-        <v>14.97</v>
+        <v>20.93</v>
       </c>
       <c r="O73" s="4" t="n">
-        <v>8.01</v>
+        <v>12.56</v>
       </c>
       <c r="P73" s="5" t="inlineStr">
         <is>
@@ -5328,17 +5328,17 @@
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>1306250001</t>
+          <t>1306210001</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>SAINTPAULIA</t>
+          <t>LILIUM MEZCLA</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M12A20   </t>
+          <t xml:space="preserve">M13A35   </t>
         </is>
       </c>
       <c r="D74" s="2" t="inlineStr">
@@ -5352,13 +5352,13 @@
         </is>
       </c>
       <c r="F74" s="3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G74" s="4" t="n">
-        <v>3.99</v>
+        <v>7.99</v>
       </c>
       <c r="H74" s="4" t="n">
-        <v>1.52</v>
+        <v>3.06</v>
       </c>
       <c r="I74" s="2" t="inlineStr">
         <is>
@@ -5367,23 +5367,23 @@
       </c>
       <c r="J74" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 50%</t>
+          <t>REDUCIR 35%</t>
         </is>
       </c>
       <c r="K74" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L74" s="3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M74" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N74" s="4" t="n">
-        <v>11.97</v>
+        <v>47.94</v>
       </c>
       <c r="O74" s="4" t="n">
-        <v>7.41</v>
+        <v>29.58</v>
       </c>
       <c r="P74" s="5" t="inlineStr">
         <is>
@@ -5394,17 +5394,17 @@
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>1501050003</t>
+          <t>1306240001</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>OPUNTIA MIX + CERAMICA</t>
+          <t>ROSA KORDANA MEZCLA</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M13A35   </t>
+          <t xml:space="preserve">M105A20  </t>
         </is>
       </c>
       <c r="D75" s="2" t="inlineStr">
@@ -5418,38 +5418,38 @@
         </is>
       </c>
       <c r="F75" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G75" s="4" t="n">
-        <v>22.95</v>
+        <v>4.99</v>
       </c>
       <c r="H75" s="4" t="n">
-        <v>8.17</v>
+        <v>2.32</v>
       </c>
       <c r="I75" s="2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J75" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 50%</t>
+          <t>AUMENTAR 19%</t>
         </is>
       </c>
       <c r="K75" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L75" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M75" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N75" s="4" t="n">
-        <v>22.95</v>
+        <v>14.97</v>
       </c>
       <c r="O75" s="4" t="n">
-        <v>14.78</v>
+        <v>8.01</v>
       </c>
       <c r="P75" s="5" t="inlineStr">
         <is>
@@ -5460,17 +5460,17 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>1504010002</t>
+          <t>1306250001</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>RHIPSALIS / SCHLUMBERGERA</t>
+          <t>SAINTPAULIA</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M105A30  </t>
+          <t xml:space="preserve">M12A20   </t>
         </is>
       </c>
       <c r="D76" s="2" t="inlineStr">
@@ -5484,38 +5484,38 @@
         </is>
       </c>
       <c r="F76" s="3" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G76" s="4" t="n">
-        <v>7.99</v>
+        <v>3.99</v>
       </c>
       <c r="H76" s="4" t="n">
-        <v>2.79</v>
+        <v>1.52</v>
       </c>
       <c r="I76" s="2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J76" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 19%</t>
+          <t>REDUCIR 50%</t>
         </is>
       </c>
       <c r="K76" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="L76" s="3" t="n">
-        <v>7</v>
-      </c>
       <c r="M76" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N76" s="4" t="n">
-        <v>55.93</v>
+        <v>11.97</v>
       </c>
       <c r="O76" s="4" t="n">
-        <v>36.4</v>
+        <v>7.41</v>
       </c>
       <c r="P76" s="5" t="inlineStr">
         <is>
@@ -5526,17 +5526,17 @@
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>1504010002</t>
+          <t>1501050003</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>RHIPSALIS / SCHLUMBERGERA</t>
+          <t>OPUNTIA MIX + CERAMICA</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M15COLG  </t>
+          <t xml:space="preserve">M13A35   </t>
         </is>
       </c>
       <c r="D77" s="2" t="inlineStr">
@@ -5550,38 +5550,38 @@
         </is>
       </c>
       <c r="F77" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G77" s="4" t="n">
-        <v>13.5</v>
+        <v>22.95</v>
       </c>
       <c r="H77" s="4" t="n">
-        <v>5.4</v>
+        <v>8.17</v>
       </c>
       <c r="I77" s="2" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J77" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 30%</t>
+          <t>REDUCIR 50%</t>
         </is>
       </c>
       <c r="K77" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L77" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M77" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N77" s="4" t="n">
-        <v>27</v>
+        <v>22.95</v>
       </c>
       <c r="O77" s="4" t="n">
-        <v>16.2</v>
+        <v>14.78</v>
       </c>
       <c r="P77" s="5" t="inlineStr">
         <is>
@@ -5592,17 +5592,17 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>1506010009</t>
+          <t>1504010002</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>SANSEVIERA HAHNII MIX</t>
+          <t>RHIPSALIS / SCHLUMBERGERA</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M6A15    </t>
+          <t xml:space="preserve">M105A30  </t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr">
@@ -5619,35 +5619,35 @@
         <v>7</v>
       </c>
       <c r="G78" s="4" t="n">
-        <v>3.99</v>
+        <v>7.99</v>
       </c>
       <c r="H78" s="4" t="n">
-        <v>2.22</v>
+        <v>2.79</v>
       </c>
       <c r="I78" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J78" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 25%</t>
+          <t>AUMENTAR 19%</t>
         </is>
       </c>
       <c r="K78" s="3" t="n">
         <v>3</v>
       </c>
       <c r="L78" s="3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M78" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N78" s="4" t="n">
-        <v>27.93</v>
+        <v>55.93</v>
       </c>
       <c r="O78" s="4" t="n">
-        <v>12.39</v>
+        <v>36.4</v>
       </c>
       <c r="P78" s="5" t="inlineStr">
         <is>
@@ -5658,17 +5658,17 @@
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>1501070003</t>
+          <t>1504010002</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>CACTUS+CUBREMACETA</t>
+          <t>RHIPSALIS / SCHLUMBERGERA</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M55A10   </t>
+          <t xml:space="preserve">M15COLG  </t>
         </is>
       </c>
       <c r="D79" s="2" t="inlineStr">
@@ -5685,10 +5685,10 @@
         <v>2</v>
       </c>
       <c r="G79" s="4" t="n">
-        <v>1.55</v>
+        <v>13.5</v>
       </c>
       <c r="H79" s="4" t="n">
-        <v>0.55</v>
+        <v>5.4</v>
       </c>
       <c r="I79" s="2" t="inlineStr">
         <is>
@@ -5710,31 +5710,31 @@
         <v>0</v>
       </c>
       <c r="N79" s="4" t="n">
-        <v>3.1</v>
+        <v>27</v>
       </c>
       <c r="O79" s="4" t="n">
-        <v>2</v>
+        <v>16.2</v>
       </c>
       <c r="P79" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">LA PACHECA VIVEROS SL                                                                                                   </t>
+          <t xml:space="preserve">JAVADOPLANT BV                                                                                                          </t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>1109210001</t>
+          <t>1506010009</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>PILEA PEPEROMIOIDES</t>
+          <t>SANSEVIERA HAHNII MIX</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M12A15   </t>
+          <t xml:space="preserve">M6A15    </t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr">
@@ -5748,59 +5748,59 @@
         </is>
       </c>
       <c r="F80" s="3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G80" s="4" t="n">
-        <v>9.99</v>
+        <v>3.99</v>
       </c>
       <c r="H80" s="4" t="n">
-        <v>2.63</v>
+        <v>2.22</v>
       </c>
       <c r="I80" s="2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J80" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 35%</t>
+          <t>REDUCIR 25%</t>
         </is>
       </c>
       <c r="K80" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L80" s="3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M80" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N80" s="4" t="n">
-        <v>19.98</v>
+        <v>27.93</v>
       </c>
       <c r="O80" s="4" t="n">
-        <v>14.72</v>
+        <v>12.39</v>
       </c>
       <c r="P80" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">LEMKES EXPORT BV                                                                                                        </t>
+          <t xml:space="preserve">JAVADOPLANT BV                                                                                                          </t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>1303010001</t>
+          <t>1501070003</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>AECHMEA</t>
+          <t>CACTUS+CUBREMACETA</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M15A60   </t>
+          <t xml:space="preserve">M55A10   </t>
         </is>
       </c>
       <c r="D81" s="2" t="inlineStr">
@@ -5817,19 +5817,19 @@
         <v>2</v>
       </c>
       <c r="G81" s="4" t="n">
-        <v>23.99</v>
+        <v>1.55</v>
       </c>
       <c r="H81" s="4" t="n">
-        <v>7.33</v>
+        <v>0.55</v>
       </c>
       <c r="I81" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="J81" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 19%</t>
+          <t>AUMENTAR 30%</t>
         </is>
       </c>
       <c r="K81" s="3" t="n">
@@ -5842,31 +5842,31 @@
         <v>0</v>
       </c>
       <c r="N81" s="4" t="n">
-        <v>47.98</v>
+        <v>3.1</v>
       </c>
       <c r="O81" s="4" t="n">
-        <v>33.32</v>
+        <v>2</v>
       </c>
       <c r="P81" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">LEMKES EXPORT BV                                                                                                        </t>
+          <t xml:space="preserve">LA PACHECA VIVEROS SL                                                                                                   </t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>1701010001</t>
+          <t>1109210001</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>BONSAI</t>
+          <t>PILEA PEPEROMIOIDES</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">7A       </t>
+          <t xml:space="preserve">M12A15   </t>
         </is>
       </c>
       <c r="D82" s="2" t="inlineStr">
@@ -5880,59 +5880,59 @@
         </is>
       </c>
       <c r="F82" s="3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G82" s="4" t="n">
-        <v>38.95</v>
+        <v>9.99</v>
       </c>
       <c r="H82" s="4" t="n">
-        <v>17.15</v>
+        <v>2.63</v>
       </c>
       <c r="I82" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J82" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 19%</t>
+          <t>REDUCIR 35%</t>
         </is>
       </c>
       <c r="K82" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="L82" s="3" t="n">
-        <v>6</v>
-      </c>
       <c r="M82" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N82" s="4" t="n">
-        <v>233.7</v>
+        <v>19.98</v>
       </c>
       <c r="O82" s="4" t="n">
-        <v>130.8</v>
+        <v>14.72</v>
       </c>
       <c r="P82" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">MISTRAL BONSAI, S.L.                                                                                                    </t>
+          <t xml:space="preserve">LEMKES EXPORT BV                                                                                                        </t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>1701010001</t>
+          <t>1303010001</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>BONSAI</t>
+          <t>AECHMEA</t>
         </is>
       </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">9A       </t>
+          <t xml:space="preserve">M15A60   </t>
         </is>
       </c>
       <c r="D83" s="2" t="inlineStr">
@@ -5949,10 +5949,10 @@
         <v>2</v>
       </c>
       <c r="G83" s="4" t="n">
-        <v>55.95</v>
+        <v>23.99</v>
       </c>
       <c r="H83" s="4" t="n">
-        <v>22.55</v>
+        <v>7.33</v>
       </c>
       <c r="I83" s="2" t="inlineStr">
         <is>
@@ -5961,7 +5961,7 @@
       </c>
       <c r="J83" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 50%</t>
+          <t>AUMENTAR 19%</t>
         </is>
       </c>
       <c r="K83" s="3" t="n">
@@ -5974,14 +5974,14 @@
         <v>0</v>
       </c>
       <c r="N83" s="4" t="n">
-        <v>111.9</v>
+        <v>47.98</v>
       </c>
       <c r="O83" s="4" t="n">
-        <v>66.8</v>
+        <v>33.32</v>
       </c>
       <c r="P83" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">MISTRAL BONSAI, S.L.                                                                                                    </t>
+          <t xml:space="preserve">LEMKES EXPORT BV                                                                                                        </t>
         </is>
       </c>
     </row>
@@ -5998,7 +5998,7 @@
       </c>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">5A       </t>
+          <t xml:space="preserve">7A       </t>
         </is>
       </c>
       <c r="D84" s="2" t="inlineStr">
@@ -6012,38 +6012,38 @@
         </is>
       </c>
       <c r="F84" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="G84" s="4" t="n">
+        <v>38.95</v>
+      </c>
+      <c r="H84" s="4" t="n">
+        <v>17.15</v>
+      </c>
+      <c r="I84" s="2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J84" s="2" t="inlineStr">
+        <is>
+          <t>AUMENTAR 19%</t>
+        </is>
+      </c>
+      <c r="K84" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G84" s="4" t="n">
-        <v>19.99</v>
-      </c>
-      <c r="H84" s="4" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="I84" s="2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="J84" s="2" t="inlineStr">
-        <is>
-          <t>AUMENTAR 19%</t>
-        </is>
-      </c>
-      <c r="K84" s="3" t="n">
-        <v>1</v>
-      </c>
       <c r="L84" s="3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M84" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N84" s="4" t="n">
-        <v>39.98</v>
+        <v>233.7</v>
       </c>
       <c r="O84" s="4" t="n">
-        <v>25.48</v>
+        <v>130.8</v>
       </c>
       <c r="P84" s="5" t="inlineStr">
         <is>
@@ -6054,17 +6054,17 @@
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>1501060010</t>
+          <t>1701010001</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>FRAILEA CASTANEA</t>
+          <t>BONSAI</t>
         </is>
       </c>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M65A10   </t>
+          <t xml:space="preserve">9A       </t>
         </is>
       </c>
       <c r="D85" s="2" t="inlineStr">
@@ -6081,19 +6081,19 @@
         <v>2</v>
       </c>
       <c r="G85" s="4" t="n">
-        <v>7.99</v>
+        <v>55.95</v>
       </c>
       <c r="H85" s="4" t="n">
-        <v>2.82</v>
+        <v>22.55</v>
       </c>
       <c r="I85" s="2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J85" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 30%</t>
+          <t>REDUCIR 50%</t>
         </is>
       </c>
       <c r="K85" s="3" t="n">
@@ -6106,31 +6106,31 @@
         <v>0</v>
       </c>
       <c r="N85" s="4" t="n">
-        <v>15.98</v>
+        <v>111.9</v>
       </c>
       <c r="O85" s="4" t="n">
-        <v>10.34</v>
+        <v>66.8</v>
       </c>
       <c r="P85" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">SEMILLAS ILURO S.L.U.                                                                                                   </t>
+          <t xml:space="preserve">MISTRAL BONSAI, S.L.                                                                                                    </t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>1501060013</t>
+          <t>1701010001</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>CRASSULA BARKLYI</t>
+          <t>BONSAI</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M65A10   </t>
+          <t xml:space="preserve">5A       </t>
         </is>
       </c>
       <c r="D86" s="2" t="inlineStr">
@@ -6144,59 +6144,59 @@
         </is>
       </c>
       <c r="F86" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G86" s="4" t="n">
-        <v>7.49</v>
+        <v>19.99</v>
       </c>
       <c r="H86" s="4" t="n">
-        <v>2.71</v>
+        <v>7.25</v>
       </c>
       <c r="I86" s="2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J86" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 30%</t>
+          <t>AUMENTAR 19%</t>
         </is>
       </c>
       <c r="K86" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L86" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M86" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N86" s="4" t="n">
-        <v>7.49</v>
+        <v>39.98</v>
       </c>
       <c r="O86" s="4" t="n">
-        <v>4.78</v>
+        <v>25.48</v>
       </c>
       <c r="P86" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">SEMILLAS ILURO S.L.U.                                                                                                   </t>
+          <t xml:space="preserve">MISTRAL BONSAI, S.L.                                                                                                    </t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>1501070007</t>
+          <t>1501060010</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>CACTUS ESPECIALES</t>
+          <t>FRAILEA CASTANEA</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M55A10   </t>
+          <t xml:space="preserve">M65A10   </t>
         </is>
       </c>
       <c r="D87" s="2" t="inlineStr">
@@ -6210,17 +6210,17 @@
         </is>
       </c>
       <c r="F87" s="3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G87" s="4" t="n">
-        <v>2.99</v>
+        <v>7.99</v>
       </c>
       <c r="H87" s="4" t="n">
-        <v>1.09</v>
+        <v>2.82</v>
       </c>
       <c r="I87" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J87" s="2" t="inlineStr">
@@ -6229,19 +6229,19 @@
         </is>
       </c>
       <c r="K87" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L87" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M87" s="3" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="N87" s="4" t="n">
-        <v>23.92</v>
+        <v>15.98</v>
       </c>
       <c r="O87" s="4" t="n">
-        <v>15.2</v>
+        <v>10.34</v>
       </c>
       <c r="P87" s="5" t="inlineStr">
         <is>
@@ -6252,12 +6252,12 @@
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>1501070007</t>
+          <t>1501060013</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>CACTUS ESPECIALES</t>
+          <t>CRASSULA BARKLYI</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
@@ -6276,38 +6276,38 @@
         </is>
       </c>
       <c r="F88" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G88" s="4" t="n">
-        <v>5.49</v>
+        <v>7.49</v>
       </c>
       <c r="H88" s="4" t="n">
-        <v>1.9</v>
+        <v>2.71</v>
       </c>
       <c r="I88" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J88" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 50%</t>
+          <t>REDUCIR 30%</t>
         </is>
       </c>
       <c r="K88" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L88" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M88" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N88" s="4" t="n">
-        <v>16.47</v>
+        <v>7.49</v>
       </c>
       <c r="O88" s="4" t="n">
-        <v>10.77</v>
+        <v>4.78</v>
       </c>
       <c r="P88" s="5" t="inlineStr">
         <is>
@@ -6318,17 +6318,17 @@
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>1101050001</t>
+          <t>1501070007</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>YUCCA</t>
+          <t>CACTUS ESPECIALES</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M14A30   </t>
+          <t xml:space="preserve">M55A10   </t>
         </is>
       </c>
       <c r="D89" s="2" t="inlineStr">
@@ -6342,59 +6342,59 @@
         </is>
       </c>
       <c r="F89" s="3" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G89" s="4" t="n">
-        <v>10.95</v>
+        <v>2.99</v>
       </c>
       <c r="H89" s="4" t="n">
-        <v>2.95</v>
+        <v>1.09</v>
       </c>
       <c r="I89" s="2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J89" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 50%</t>
+          <t>REDUCIR 30%</t>
         </is>
       </c>
       <c r="K89" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L89" s="3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M89" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N89" s="4" t="n">
-        <v>10.95</v>
+        <v>23.92</v>
       </c>
       <c r="O89" s="4" t="n">
-        <v>8</v>
+        <v>15.2</v>
       </c>
       <c r="P89" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">VIVERO LAS FRESAS , S.L.                                                                                                </t>
+          <t xml:space="preserve">SEMILLAS ILURO S.L.U.                                                                                                   </t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>1104060001</t>
+          <t>1501070007</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>NEPHROLEPIS BOSTON</t>
+          <t>CACTUS ESPECIALES</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M15COLG  </t>
+          <t xml:space="preserve">M65A10   </t>
         </is>
       </c>
       <c r="D90" s="2" t="inlineStr">
@@ -6408,13 +6408,13 @@
         </is>
       </c>
       <c r="F90" s="3" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G90" s="4" t="n">
-        <v>7.99</v>
+        <v>5.49</v>
       </c>
       <c r="H90" s="4" t="n">
-        <v>3.44</v>
+        <v>1.9</v>
       </c>
       <c r="I90" s="2" t="inlineStr">
         <is>
@@ -6423,44 +6423,44 @@
       </c>
       <c r="J90" s="2" t="inlineStr">
         <is>
-          <t>MANTENER</t>
+          <t>REDUCIR 50%</t>
         </is>
       </c>
       <c r="K90" s="3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L90" s="3" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="M90" s="3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N90" s="4" t="n">
-        <v>111.86</v>
+        <v>16.47</v>
       </c>
       <c r="O90" s="4" t="n">
-        <v>63.7</v>
+        <v>10.77</v>
       </c>
       <c r="P90" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">VIVERO LAS FRESAS , S.L.                                                                                                </t>
+          <t xml:space="preserve">SEMILLAS ILURO S.L.U.                                                                                                   </t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>1104060003</t>
+          <t>1101050001</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>NEPHROLEPIS MACHO (HELECHO)</t>
+          <t>YUCCA</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M15COLG  </t>
+          <t xml:space="preserve">M14A30   </t>
         </is>
       </c>
       <c r="D91" s="2" t="inlineStr">
@@ -6474,17 +6474,17 @@
         </is>
       </c>
       <c r="F91" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G91" s="4" t="n">
-        <v>12.95</v>
+        <v>10.95</v>
       </c>
       <c r="H91" s="4" t="n">
-        <v>3.34</v>
+        <v>2.95</v>
       </c>
       <c r="I91" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J91" s="2" t="inlineStr">
@@ -6496,16 +6496,16 @@
         <v>1</v>
       </c>
       <c r="L91" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M91" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N91" s="4" t="n">
-        <v>25.9</v>
+        <v>10.95</v>
       </c>
       <c r="O91" s="4" t="n">
-        <v>19.22</v>
+        <v>8</v>
       </c>
       <c r="P91" s="5" t="inlineStr">
         <is>
@@ -6516,17 +6516,17 @@
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>1106020005</t>
+          <t>1104060001</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>ALOCASIA CUCULLATA</t>
+          <t>NEPHROLEPIS BOSTON</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">C17A60   </t>
+          <t xml:space="preserve">M15COLG  </t>
         </is>
       </c>
       <c r="D92" s="2" t="inlineStr">
@@ -6540,38 +6540,38 @@
         </is>
       </c>
       <c r="F92" s="3" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G92" s="4" t="n">
-        <v>29.99</v>
+        <v>7.99</v>
       </c>
       <c r="H92" s="4" t="n">
-        <v>5.69</v>
+        <v>3.44</v>
       </c>
       <c r="I92" s="2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J92" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 50%</t>
+          <t>MANTENER</t>
         </is>
       </c>
       <c r="K92" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L92" s="3" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="M92" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N92" s="4" t="n">
-        <v>29.99</v>
+        <v>111.86</v>
       </c>
       <c r="O92" s="4" t="n">
-        <v>24.3</v>
+        <v>63.7</v>
       </c>
       <c r="P92" s="5" t="inlineStr">
         <is>
@@ -6582,17 +6582,17 @@
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>1108140004</t>
+          <t>1104060003</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>PLECTRANTHUS AUSTRALIS (PLANTA DEL DINERO)</t>
+          <t>NEPHROLEPIS MACHO (HELECHO)</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M105A20  </t>
+          <t xml:space="preserve">M15COLG  </t>
         </is>
       </c>
       <c r="D93" s="2" t="inlineStr">
@@ -6606,13 +6606,13 @@
         </is>
       </c>
       <c r="F93" s="3" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G93" s="4" t="n">
-        <v>0</v>
+        <v>12.95</v>
       </c>
       <c r="H93" s="4" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
       <c r="I93" s="2" t="inlineStr">
         <is>
@@ -6621,23 +6621,23 @@
       </c>
       <c r="J93" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 19%</t>
+          <t>REDUCIR 50%</t>
         </is>
       </c>
       <c r="K93" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L93" s="3" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="M93" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N93" s="4" t="n">
-        <v>0</v>
+        <v>25.9</v>
       </c>
       <c r="O93" s="4" t="n">
-        <v>0</v>
+        <v>19.22</v>
       </c>
       <c r="P93" s="5" t="inlineStr">
         <is>
@@ -6648,17 +6648,17 @@
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>1306040001</t>
+          <t>1106020005</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>BEGONIA ELATIOR</t>
+          <t>ALOCASIA CUCULLATA</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M15A25   </t>
+          <t xml:space="preserve">C17A60   </t>
         </is>
       </c>
       <c r="D94" s="2" t="inlineStr">
@@ -6672,38 +6672,38 @@
         </is>
       </c>
       <c r="F94" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G94" s="4" t="n">
-        <v>8.99</v>
+        <v>29.99</v>
       </c>
       <c r="H94" s="4" t="n">
-        <v>3.3</v>
+        <v>5.69</v>
       </c>
       <c r="I94" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J94" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 19%</t>
+          <t>REDUCIR 50%</t>
         </is>
       </c>
       <c r="K94" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L94" s="3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M94" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N94" s="4" t="n">
-        <v>26.97</v>
+        <v>29.99</v>
       </c>
       <c r="O94" s="4" t="n">
-        <v>17.07</v>
+        <v>24.3</v>
       </c>
       <c r="P94" s="5" t="inlineStr">
         <is>
@@ -6714,17 +6714,17 @@
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>1101030015</t>
+          <t>1108140004</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>DRACAENA MARGINATA BICOLOR</t>
+          <t>PLECTRANTHUS AUSTRALIS (PLANTA DEL DINERO)</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M14A15   </t>
+          <t xml:space="preserve">M105A20  </t>
         </is>
       </c>
       <c r="D95" s="2" t="inlineStr">
@@ -6738,59 +6738,59 @@
         </is>
       </c>
       <c r="F95" s="3" t="n">
+        <v>13</v>
+      </c>
+      <c r="G95" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" s="2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J95" s="2" t="inlineStr">
+        <is>
+          <t>AUMENTAR 19%</t>
+        </is>
+      </c>
+      <c r="K95" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="G95" s="4" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="H95" s="4" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="I95" s="2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="J95" s="2" t="inlineStr">
-        <is>
-          <t>AUMENTAR 39%</t>
-        </is>
-      </c>
-      <c r="K95" s="3" t="n">
-        <v>2</v>
-      </c>
       <c r="L95" s="3" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="M95" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N95" s="4" t="n">
-        <v>23.96</v>
+        <v>0</v>
       </c>
       <c r="O95" s="4" t="n">
-        <v>14.52</v>
+        <v>0</v>
       </c>
       <c r="P95" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">VIVEROS ECOPLANT SL                                                                                                     </t>
+          <t xml:space="preserve">VIVERO LAS FRESAS , S.L.                                                                                                </t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>1101030028</t>
+          <t>1306040001</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>DRACAENA HAWAIIAN SUNSHINE 2 TRONCOS</t>
+          <t>BEGONIA ELATIOR</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">C17A230  </t>
+          <t xml:space="preserve">M15A25   </t>
         </is>
       </c>
       <c r="D96" s="2" t="inlineStr">
@@ -6804,59 +6804,59 @@
         </is>
       </c>
       <c r="F96" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G96" s="4" t="n">
-        <v>22.29</v>
+        <v>8.99</v>
       </c>
       <c r="H96" s="4" t="n">
-        <v>7.98</v>
+        <v>3.3</v>
       </c>
       <c r="I96" s="2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J96" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 50%</t>
+          <t>AUMENTAR 19%</t>
         </is>
       </c>
       <c r="K96" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L96" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M96" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N96" s="4" t="n">
-        <v>22.29</v>
+        <v>26.97</v>
       </c>
       <c r="O96" s="4" t="n">
-        <v>14.31</v>
+        <v>17.07</v>
       </c>
       <c r="P96" s="5" t="inlineStr">
         <is>
-          <t xml:space="preserve">VIVEROS ECOPLANT SL                                                                                                     </t>
+          <t xml:space="preserve">VIVERO LAS FRESAS , S.L.                                                                                                </t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>1102010024</t>
+          <t>1101030015</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>FICUS ELASTICA ADBIJAN 3 PLANTAS</t>
+          <t>DRACAENA MARGINATA BICOLOR</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">C20A90   </t>
+          <t xml:space="preserve">M14A15   </t>
         </is>
       </c>
       <c r="D97" s="2" t="inlineStr">
@@ -6873,10 +6873,10 @@
         <v>4</v>
       </c>
       <c r="G97" s="4" t="n">
-        <v>28.99</v>
+        <v>5.99</v>
       </c>
       <c r="H97" s="4" t="n">
-        <v>10.58</v>
+        <v>2.36</v>
       </c>
       <c r="I97" s="2" t="inlineStr">
         <is>
@@ -6885,7 +6885,7 @@
       </c>
       <c r="J97" s="2" t="inlineStr">
         <is>
-          <t>MANTENER</t>
+          <t>AUMENTAR 39%</t>
         </is>
       </c>
       <c r="K97" s="3" t="n">
@@ -6898,10 +6898,10 @@
         <v>0</v>
       </c>
       <c r="N97" s="4" t="n">
-        <v>115.96</v>
+        <v>23.96</v>
       </c>
       <c r="O97" s="4" t="n">
-        <v>73.64</v>
+        <v>14.52</v>
       </c>
       <c r="P97" s="5" t="inlineStr">
         <is>
@@ -6912,17 +6912,17 @@
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>1103020001</t>
+          <t>1101030028</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>CHAMAEDOREA</t>
+          <t>DRACAENA HAWAIIAN SUNSHINE 2 TRONCOS</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M6A20    </t>
+          <t xml:space="preserve">C17A230  </t>
         </is>
       </c>
       <c r="D98" s="2" t="inlineStr">
@@ -6936,13 +6936,13 @@
         </is>
       </c>
       <c r="F98" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G98" s="4" t="n">
-        <v>3.99</v>
+        <v>22.29</v>
       </c>
       <c r="H98" s="4" t="n">
-        <v>1.6</v>
+        <v>7.98</v>
       </c>
       <c r="I98" s="2" t="inlineStr">
         <is>
@@ -6951,23 +6951,23 @@
       </c>
       <c r="J98" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 25%</t>
+          <t>REDUCIR 50%</t>
         </is>
       </c>
       <c r="K98" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L98" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M98" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N98" s="4" t="n">
-        <v>7.98</v>
+        <v>22.29</v>
       </c>
       <c r="O98" s="4" t="n">
-        <v>4.79</v>
+        <v>14.31</v>
       </c>
       <c r="P98" s="5" t="inlineStr">
         <is>
@@ -6978,17 +6978,17 @@
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>1105050001</t>
+          <t>1102010024</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>MONSTERA</t>
+          <t>FICUS ELASTICA ADBIJAN 3 PLANTAS</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">C17A50   </t>
+          <t xml:space="preserve">C20A90   </t>
         </is>
       </c>
       <c r="D99" s="2" t="inlineStr">
@@ -7002,38 +7002,38 @@
         </is>
       </c>
       <c r="F99" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G99" s="4" t="n">
+        <v>28.99</v>
+      </c>
+      <c r="H99" s="4" t="n">
+        <v>10.58</v>
+      </c>
+      <c r="I99" s="2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J99" s="2" t="inlineStr">
+        <is>
+          <t>MANTENER</t>
+        </is>
+      </c>
+      <c r="K99" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="G99" s="4" t="n">
-        <v>19.95</v>
-      </c>
-      <c r="H99" s="4" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="I99" s="2" t="inlineStr">
-        <is>
-          <t>A</t>
-        </is>
-      </c>
-      <c r="J99" s="2" t="inlineStr">
-        <is>
-          <t>REDUCIR 9%</t>
-        </is>
-      </c>
-      <c r="K99" s="3" t="n">
-        <v>1</v>
-      </c>
       <c r="L99" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M99" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N99" s="4" t="n">
-        <v>39.9</v>
+        <v>115.96</v>
       </c>
       <c r="O99" s="4" t="n">
-        <v>30.34</v>
+        <v>73.64</v>
       </c>
       <c r="P99" s="5" t="inlineStr">
         <is>
@@ -7044,17 +7044,17 @@
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>1105050020</t>
+          <t>1103020001</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>PHILODENDRON BRASIL</t>
+          <t>CHAMAEDOREA</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M15A25   </t>
+          <t xml:space="preserve">M6A20    </t>
         </is>
       </c>
       <c r="D100" s="2" t="inlineStr">
@@ -7068,13 +7068,13 @@
         </is>
       </c>
       <c r="F100" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G100" s="4" t="n">
-        <v>10.5</v>
+        <v>3.99</v>
       </c>
       <c r="H100" s="4" t="n">
-        <v>4.05</v>
+        <v>1.6</v>
       </c>
       <c r="I100" s="2" t="inlineStr">
         <is>
@@ -7083,23 +7083,23 @@
       </c>
       <c r="J100" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 19%</t>
+          <t>REDUCIR 25%</t>
         </is>
       </c>
       <c r="K100" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L100" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M100" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N100" s="4" t="n">
-        <v>10.5</v>
+        <v>7.98</v>
       </c>
       <c r="O100" s="4" t="n">
-        <v>6.45</v>
+        <v>4.79</v>
       </c>
       <c r="P100" s="5" t="inlineStr">
         <is>
@@ -7110,17 +7110,17 @@
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>1106060001</t>
+          <t>1105050001</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>CROTON PETRA</t>
+          <t>MONSTERA</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">C17A55   </t>
+          <t xml:space="preserve">C17A50   </t>
         </is>
       </c>
       <c r="D101" s="2" t="inlineStr">
@@ -7137,10 +7137,10 @@
         <v>2</v>
       </c>
       <c r="G101" s="4" t="n">
-        <v>33.95</v>
+        <v>19.95</v>
       </c>
       <c r="H101" s="4" t="n">
-        <v>12.25</v>
+        <v>4.78</v>
       </c>
       <c r="I101" s="2" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
       </c>
       <c r="J101" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 19%</t>
+          <t>REDUCIR 9%</t>
         </is>
       </c>
       <c r="K101" s="3" t="n">
@@ -7162,10 +7162,10 @@
         <v>0</v>
       </c>
       <c r="N101" s="4" t="n">
-        <v>67.90000000000001</v>
+        <v>39.9</v>
       </c>
       <c r="O101" s="4" t="n">
-        <v>43.4</v>
+        <v>30.34</v>
       </c>
       <c r="P101" s="5" t="inlineStr">
         <is>
@@ -7176,17 +7176,17 @@
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>1106060003</t>
+          <t>1105050020</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>CROTON MIX</t>
+          <t>PHILODENDRON BRASIL</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M15A20   </t>
+          <t xml:space="preserve">M15A25   </t>
         </is>
       </c>
       <c r="D102" s="2" t="inlineStr">
@@ -7203,10 +7203,10 @@
         <v>1</v>
       </c>
       <c r="G102" s="4" t="n">
-        <v>9.25</v>
+        <v>10.5</v>
       </c>
       <c r="H102" s="4" t="n">
-        <v>3.34</v>
+        <v>4.05</v>
       </c>
       <c r="I102" s="2" t="inlineStr">
         <is>
@@ -7228,10 +7228,10 @@
         <v>0</v>
       </c>
       <c r="N102" s="4" t="n">
-        <v>9.25</v>
+        <v>10.5</v>
       </c>
       <c r="O102" s="4" t="n">
-        <v>5.91</v>
+        <v>6.45</v>
       </c>
       <c r="P102" s="5" t="inlineStr">
         <is>
@@ -7242,17 +7242,17 @@
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>1106070001</t>
+          <t>1106060001</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>DIEFFENBACHIA TROPIC LEMON</t>
+          <t>CROTON PETRA</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">C17A80   </t>
+          <t xml:space="preserve">C17A55   </t>
         </is>
       </c>
       <c r="D103" s="2" t="inlineStr">
@@ -7269,10 +7269,10 @@
         <v>2</v>
       </c>
       <c r="G103" s="4" t="n">
-        <v>19.95</v>
+        <v>33.95</v>
       </c>
       <c r="H103" s="4" t="n">
-        <v>7.23</v>
+        <v>12.25</v>
       </c>
       <c r="I103" s="2" t="inlineStr">
         <is>
@@ -7294,10 +7294,10 @@
         <v>0</v>
       </c>
       <c r="N103" s="4" t="n">
-        <v>39.9</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="O103" s="4" t="n">
-        <v>25.44</v>
+        <v>43.4</v>
       </c>
       <c r="P103" s="5" t="inlineStr">
         <is>
@@ -7308,17 +7308,17 @@
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>1106130005</t>
+          <t>1106060003</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>POTHOS TUTOR (EPIPREMNUM PINNATUM)</t>
+          <t>CROTON MIX</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">C20A100  </t>
+          <t xml:space="preserve">M15A20   </t>
         </is>
       </c>
       <c r="D104" s="2" t="inlineStr">
@@ -7332,38 +7332,38 @@
         </is>
       </c>
       <c r="F104" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G104" s="4" t="n">
-        <v>45.95</v>
+        <v>9.25</v>
       </c>
       <c r="H104" s="4" t="n">
-        <v>16.75</v>
+        <v>3.34</v>
       </c>
       <c r="I104" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J104" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 30%</t>
+          <t>AUMENTAR 19%</t>
         </is>
       </c>
       <c r="K104" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L104" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M104" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N104" s="4" t="n">
-        <v>91.90000000000001</v>
+        <v>9.25</v>
       </c>
       <c r="O104" s="4" t="n">
-        <v>58.4</v>
+        <v>5.91</v>
       </c>
       <c r="P104" s="5" t="inlineStr">
         <is>
@@ -7374,17 +7374,17 @@
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>1108020003</t>
+          <t>1106070001</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>CHLOROPHYTUM (CINTAS)</t>
+          <t>DIEFFENBACHIA TROPIC LEMON</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M15COLG  </t>
+          <t xml:space="preserve">C17A80   </t>
         </is>
       </c>
       <c r="D105" s="2" t="inlineStr">
@@ -7398,13 +7398,13 @@
         </is>
       </c>
       <c r="F105" s="3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G105" s="4" t="n">
-        <v>7.99</v>
+        <v>19.95</v>
       </c>
       <c r="H105" s="4" t="n">
-        <v>2.87</v>
+        <v>7.23</v>
       </c>
       <c r="I105" s="2" t="inlineStr">
         <is>
@@ -7417,19 +7417,19 @@
         </is>
       </c>
       <c r="K105" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="L105" s="3" t="n">
-        <v>5</v>
-      </c>
       <c r="M105" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N105" s="4" t="n">
-        <v>39.95</v>
+        <v>39.9</v>
       </c>
       <c r="O105" s="4" t="n">
-        <v>25.6</v>
+        <v>25.44</v>
       </c>
       <c r="P105" s="5" t="inlineStr">
         <is>
@@ -7440,17 +7440,17 @@
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>1108060002</t>
+          <t>1106130005</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>HEDERA BICOLOR</t>
+          <t>POTHOS TUTOR (EPIPREMNUM PINNATUM)</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M15COLG  </t>
+          <t xml:space="preserve">C20A100  </t>
         </is>
       </c>
       <c r="D106" s="2" t="inlineStr">
@@ -7464,13 +7464,13 @@
         </is>
       </c>
       <c r="F106" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G106" s="4" t="n">
-        <v>9.949999999999999</v>
+        <v>45.95</v>
       </c>
       <c r="H106" s="4" t="n">
-        <v>3.48</v>
+        <v>16.75</v>
       </c>
       <c r="I106" s="2" t="inlineStr">
         <is>
@@ -7479,23 +7479,23 @@
       </c>
       <c r="J106" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 19%</t>
+          <t>REDUCIR 30%</t>
         </is>
       </c>
       <c r="K106" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L106" s="3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M106" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N106" s="4" t="n">
-        <v>29.85</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="O106" s="4" t="n">
-        <v>19.41</v>
+        <v>58.4</v>
       </c>
       <c r="P106" s="5" t="inlineStr">
         <is>
@@ -7506,12 +7506,12 @@
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>1108130002</t>
+          <t>1108020003</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>TRADESCANTIA ZEBRINA</t>
+          <t>CHLOROPHYTUM (CINTAS)</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr">
@@ -7530,13 +7530,13 @@
         </is>
       </c>
       <c r="F107" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G107" s="4" t="n">
-        <v>9.49</v>
+        <v>7.99</v>
       </c>
       <c r="H107" s="4" t="n">
-        <v>3.32</v>
+        <v>2.87</v>
       </c>
       <c r="I107" s="2" t="inlineStr">
         <is>
@@ -7549,19 +7549,19 @@
         </is>
       </c>
       <c r="K107" s="3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L107" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M107" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N107" s="4" t="n">
-        <v>9.49</v>
+        <v>39.95</v>
       </c>
       <c r="O107" s="4" t="n">
-        <v>6.17</v>
+        <v>25.6</v>
       </c>
       <c r="P107" s="5" t="inlineStr">
         <is>
@@ -7572,17 +7572,17 @@
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>1306270007</t>
+          <t>1108060002</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>ZANTEDESCHIA</t>
+          <t>HEDERA BICOLOR</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">C17A60   </t>
+          <t xml:space="preserve">M15COLG  </t>
         </is>
       </c>
       <c r="D108" s="2" t="inlineStr">
@@ -7596,38 +7596,38 @@
         </is>
       </c>
       <c r="F108" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G108" s="4" t="n">
-        <v>19.99</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="H108" s="4" t="n">
-        <v>5.07</v>
+        <v>3.48</v>
       </c>
       <c r="I108" s="2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J108" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 50%</t>
+          <t>AUMENTAR 19%</t>
         </is>
       </c>
       <c r="K108" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L108" s="3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M108" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N108" s="4" t="n">
-        <v>19.99</v>
+        <v>29.85</v>
       </c>
       <c r="O108" s="4" t="n">
-        <v>14.92</v>
+        <v>19.41</v>
       </c>
       <c r="P108" s="5" t="inlineStr">
         <is>
@@ -7638,17 +7638,17 @@
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>1306270014</t>
+          <t>1108130002</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>ADENIUM OBESUM</t>
+          <t>TRADESCANTIA ZEBRINA</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">C20A35   </t>
+          <t xml:space="preserve">M15COLG  </t>
         </is>
       </c>
       <c r="D109" s="2" t="inlineStr">
@@ -7662,13 +7662,13 @@
         </is>
       </c>
       <c r="F109" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G109" s="4" t="n">
-        <v>26.49</v>
+        <v>9.49</v>
       </c>
       <c r="H109" s="4" t="n">
-        <v>8.710000000000001</v>
+        <v>3.32</v>
       </c>
       <c r="I109" s="2" t="inlineStr">
         <is>
@@ -7677,23 +7677,23 @@
       </c>
       <c r="J109" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 35%</t>
+          <t>AUMENTAR 19%</t>
         </is>
       </c>
       <c r="K109" s="3" t="n">
         <v>1</v>
       </c>
       <c r="L109" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M109" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N109" s="4" t="n">
-        <v>52.98</v>
+        <v>9.49</v>
       </c>
       <c r="O109" s="4" t="n">
-        <v>35.56</v>
+        <v>6.17</v>
       </c>
       <c r="P109" s="5" t="inlineStr">
         <is>
@@ -7704,17 +7704,17 @@
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>1306270014</t>
+          <t>1108140009</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>ADENIUM OBESUM</t>
+          <t>POTHO COLGANTE</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M105A25  </t>
+          <t xml:space="preserve">M15COLG  </t>
         </is>
       </c>
       <c r="D110" s="2" t="inlineStr">
@@ -7728,13 +7728,13 @@
         </is>
       </c>
       <c r="F110" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G110" s="4" t="n">
-        <v>6.99</v>
+        <v>8.85</v>
       </c>
       <c r="H110" s="4" t="n">
-        <v>2.8</v>
+        <v>3.37</v>
       </c>
       <c r="I110" s="2" t="inlineStr">
         <is>
@@ -7743,23 +7743,23 @@
       </c>
       <c r="J110" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 15%</t>
+          <t>REDUCIR 50%</t>
         </is>
       </c>
       <c r="K110" s="3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L110" s="3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M110" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N110" s="4" t="n">
-        <v>27.96</v>
+        <v>8.85</v>
       </c>
       <c r="O110" s="4" t="n">
-        <v>16.76</v>
+        <v>5.48</v>
       </c>
       <c r="P110" s="5" t="inlineStr">
         <is>
@@ -7770,12 +7770,12 @@
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>1306270022</t>
+          <t>1306270007</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>ZANTEDESCHIA PRINCE AEMEL</t>
+          <t>ZANTEDESCHIA</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr">
@@ -7797,19 +7797,19 @@
         <v>1</v>
       </c>
       <c r="G111" s="4" t="n">
-        <v>16.99</v>
+        <v>19.99</v>
       </c>
       <c r="H111" s="4" t="n">
-        <v>6.89</v>
+        <v>5.07</v>
       </c>
       <c r="I111" s="2" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="J111" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 25%</t>
+          <t>REDUCIR 50%</t>
         </is>
       </c>
       <c r="K111" s="3" t="n">
@@ -7822,10 +7822,10 @@
         <v>0</v>
       </c>
       <c r="N111" s="4" t="n">
-        <v>16.99</v>
+        <v>19.99</v>
       </c>
       <c r="O111" s="4" t="n">
-        <v>10.1</v>
+        <v>14.92</v>
       </c>
       <c r="P111" s="5" t="inlineStr">
         <is>
@@ -7836,17 +7836,17 @@
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>1306270024</t>
+          <t>1306270014</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>STRELITZIA AUGUSTA 3 PLANTAS</t>
+          <t>ADENIUM OBESUM</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">C20A390  </t>
+          <t xml:space="preserve">C20A35   </t>
         </is>
       </c>
       <c r="D112" s="2" t="inlineStr">
@@ -7863,10 +7863,10 @@
         <v>2</v>
       </c>
       <c r="G112" s="4" t="n">
-        <v>28.95</v>
+        <v>26.49</v>
       </c>
       <c r="H112" s="4" t="n">
-        <v>11.54</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="I112" s="2" t="inlineStr">
         <is>
@@ -7875,7 +7875,7 @@
       </c>
       <c r="J112" s="2" t="inlineStr">
         <is>
-          <t>REDUCIR 25%</t>
+          <t>REDUCIR 35%</t>
         </is>
       </c>
       <c r="K112" s="3" t="n">
@@ -7888,10 +7888,10 @@
         <v>0</v>
       </c>
       <c r="N112" s="4" t="n">
-        <v>57.9</v>
+        <v>52.98</v>
       </c>
       <c r="O112" s="4" t="n">
-        <v>34.82</v>
+        <v>35.56</v>
       </c>
       <c r="P112" s="5" t="inlineStr">
         <is>
@@ -7902,17 +7902,17 @@
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>1501060001</t>
+          <t>1306270014</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>PLANTA CRASA</t>
+          <t>ADENIUM OBESUM</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M85A15   </t>
+          <t xml:space="preserve">M105A25  </t>
         </is>
       </c>
       <c r="D113" s="2" t="inlineStr">
@@ -7926,13 +7926,13 @@
         </is>
       </c>
       <c r="F113" s="3" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="G113" s="4" t="n">
-        <v>2.5</v>
+        <v>6.99</v>
       </c>
       <c r="H113" s="4" t="n">
-        <v>0.88</v>
+        <v>2.8</v>
       </c>
       <c r="I113" s="2" t="inlineStr">
         <is>
@@ -7941,23 +7941,23 @@
       </c>
       <c r="J113" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 19%</t>
+          <t>REDUCIR 15%</t>
         </is>
       </c>
       <c r="K113" s="3" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L113" s="3" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="M113" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N113" s="4" t="n">
-        <v>55</v>
+        <v>27.96</v>
       </c>
       <c r="O113" s="4" t="n">
-        <v>35.64</v>
+        <v>16.76</v>
       </c>
       <c r="P113" s="5" t="inlineStr">
         <is>
@@ -7968,17 +7968,17 @@
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>1501060001</t>
+          <t>1306270022</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>PLANTA CRASA</t>
+          <t>ZANTEDESCHIA PRINCE AEMEL</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M13A15   </t>
+          <t xml:space="preserve">C17A60   </t>
         </is>
       </c>
       <c r="D114" s="2" t="inlineStr">
@@ -7992,13 +7992,13 @@
         </is>
       </c>
       <c r="F114" s="3" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G114" s="4" t="n">
-        <v>4.49</v>
+        <v>16.99</v>
       </c>
       <c r="H114" s="4" t="n">
-        <v>1.8</v>
+        <v>6.89</v>
       </c>
       <c r="I114" s="2" t="inlineStr">
         <is>
@@ -8007,23 +8007,23 @@
       </c>
       <c r="J114" s="2" t="inlineStr">
         <is>
-          <t>AUMENTAR 19%</t>
+          <t>REDUCIR 25%</t>
         </is>
       </c>
       <c r="K114" s="3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L114" s="3" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="M114" s="3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N114" s="4" t="n">
-        <v>49.39</v>
+        <v>16.99</v>
       </c>
       <c r="O114" s="4" t="n">
-        <v>29.63</v>
+        <v>10.1</v>
       </c>
       <c r="P114" s="5" t="inlineStr">
         <is>
@@ -8034,17 +8034,17 @@
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>1501060001</t>
+          <t>1306270024</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>PLANTA CRASA</t>
+          <t>STRELITZIA AUGUSTA 3 PLANTAS</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M55A10   </t>
+          <t xml:space="preserve">C20A390  </t>
         </is>
       </c>
       <c r="D115" s="2" t="inlineStr">
@@ -8058,13 +8058,13 @@
         </is>
       </c>
       <c r="F115" s="3" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="G115" s="4" t="n">
-        <v>1.15</v>
+        <v>28.95</v>
       </c>
       <c r="H115" s="4" t="n">
-        <v>0.44</v>
+        <v>11.54</v>
       </c>
       <c r="I115" s="2" t="inlineStr">
         <is>
@@ -8073,23 +8073,23 @@
       </c>
       <c r="J115" s="2" t="inlineStr">
         <is>
-          <t>MANTENER</t>
+          <t>REDUCIR 25%</t>
         </is>
       </c>
       <c r="K115" s="3" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="L115" s="3" t="n">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="M115" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N115" s="4" t="n">
-        <v>31.05</v>
+        <v>57.9</v>
       </c>
       <c r="O115" s="4" t="n">
-        <v>19.17</v>
+        <v>34.82</v>
       </c>
       <c r="P115" s="5" t="inlineStr">
         <is>
@@ -8100,17 +8100,17 @@
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>1502090007</t>
+          <t>1501060001</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>CRASSULA OVATA</t>
+          <t>PLANTA CRASA</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">C20A20   </t>
+          <t xml:space="preserve">M85A15   </t>
         </is>
       </c>
       <c r="D116" s="2" t="inlineStr">
@@ -8124,13 +8124,13 @@
         </is>
       </c>
       <c r="F116" s="3" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="G116" s="4" t="n">
-        <v>23.99</v>
+        <v>2.5</v>
       </c>
       <c r="H116" s="4" t="n">
-        <v>8.69</v>
+        <v>0.88</v>
       </c>
       <c r="I116" s="2" t="inlineStr">
         <is>
@@ -8139,23 +8139,23 @@
       </c>
       <c r="J116" s="2" t="inlineStr">
         <is>
-          <t>MANTENER</t>
+          <t>AUMENTAR 19%</t>
         </is>
       </c>
       <c r="K116" s="3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="L116" s="3" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="M116" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N116" s="4" t="n">
-        <v>47.98</v>
+        <v>55</v>
       </c>
       <c r="O116" s="4" t="n">
-        <v>30.6</v>
+        <v>35.64</v>
       </c>
       <c r="P116" s="5" t="inlineStr">
         <is>
@@ -8166,17 +8166,17 @@
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>1503030000</t>
+          <t>1501060001</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>EUPHORBIA TRIGONA</t>
+          <t>PLANTA CRASA</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">C17A40   </t>
+          <t xml:space="preserve">M13A15   </t>
         </is>
       </c>
       <c r="D117" s="2" t="inlineStr">
@@ -8190,17 +8190,17 @@
         </is>
       </c>
       <c r="F117" s="3" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G117" s="4" t="n">
-        <v>14.5</v>
+        <v>4.49</v>
       </c>
       <c r="H117" s="4" t="n">
-        <v>5.17</v>
+        <v>1.8</v>
       </c>
       <c r="I117" s="2" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="J117" s="2" t="inlineStr">
@@ -8209,19 +8209,19 @@
         </is>
       </c>
       <c r="K117" s="3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L117" s="3" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="M117" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N117" s="4" t="n">
-        <v>43.5</v>
+        <v>49.39</v>
       </c>
       <c r="O117" s="4" t="n">
-        <v>27.99</v>
+        <v>29.63</v>
       </c>
       <c r="P117" s="5" t="inlineStr">
         <is>
@@ -8232,17 +8232,17 @@
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>1506010003</t>
+          <t>1501060001</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>SANSEVIERA LAURENTTI</t>
+          <t>PLANTA CRASA</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">M14A45   </t>
+          <t xml:space="preserve">M55A10   </t>
         </is>
       </c>
       <c r="D118" s="2" t="inlineStr">
@@ -8256,13 +8256,13 @@
         </is>
       </c>
       <c r="F118" s="3" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="G118" s="4" t="n">
-        <v>22.95</v>
+        <v>1.15</v>
       </c>
       <c r="H118" s="4" t="n">
-        <v>6.4</v>
+        <v>0.44</v>
       </c>
       <c r="I118" s="2" t="inlineStr">
         <is>
@@ -8275,19 +8275,19 @@
         </is>
       </c>
       <c r="K118" s="3" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L118" s="3" t="n">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="M118" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N118" s="4" t="n">
-        <v>114.75</v>
+        <v>31.05</v>
       </c>
       <c r="O118" s="4" t="n">
-        <v>82.75</v>
+        <v>19.17</v>
       </c>
       <c r="P118" s="5" t="inlineStr">
         <is>
@@ -8298,209 +8298,407 @@
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
+          <t>1502090007</t>
+        </is>
+      </c>
+      <c r="B119" s="2" t="inlineStr">
+        <is>
+          <t>CRASSULA OVATA</t>
+        </is>
+      </c>
+      <c r="C119" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C20A20   </t>
+        </is>
+      </c>
+      <c r="D119" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UNICO   </t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="inlineStr">
+        <is>
+          <t>interior</t>
+        </is>
+      </c>
+      <c r="F119" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G119" s="4" t="n">
+        <v>23.99</v>
+      </c>
+      <c r="H119" s="4" t="n">
+        <v>8.69</v>
+      </c>
+      <c r="I119" s="2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J119" s="2" t="inlineStr">
+        <is>
+          <t>MANTENER</t>
+        </is>
+      </c>
+      <c r="K119" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M119" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N119" s="4" t="n">
+        <v>47.98</v>
+      </c>
+      <c r="O119" s="4" t="n">
+        <v>30.6</v>
+      </c>
+      <c r="P119" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVEROS ECOPLANT SL                                                                                                     </t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="inlineStr">
+        <is>
+          <t>1503030000</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="inlineStr">
+        <is>
+          <t>EUPHORBIA TRIGONA</t>
+        </is>
+      </c>
+      <c r="C120" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C17A40   </t>
+        </is>
+      </c>
+      <c r="D120" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UNICO   </t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="inlineStr">
+        <is>
+          <t>interior</t>
+        </is>
+      </c>
+      <c r="F120" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G120" s="4" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="H120" s="4" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="I120" s="2" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="J120" s="2" t="inlineStr">
+        <is>
+          <t>AUMENTAR 19%</t>
+        </is>
+      </c>
+      <c r="K120" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="M120" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N120" s="4" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="O120" s="4" t="n">
+        <v>27.99</v>
+      </c>
+      <c r="P120" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVEROS ECOPLANT SL                                                                                                     </t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="inlineStr">
+        <is>
+          <t>1506010003</t>
+        </is>
+      </c>
+      <c r="B121" s="2" t="inlineStr">
+        <is>
+          <t>SANSEVIERA LAURENTTI</t>
+        </is>
+      </c>
+      <c r="C121" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">M14A45   </t>
+        </is>
+      </c>
+      <c r="D121" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UNICO   </t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="inlineStr">
+        <is>
+          <t>interior</t>
+        </is>
+      </c>
+      <c r="F121" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G121" s="4" t="n">
+        <v>22.95</v>
+      </c>
+      <c r="H121" s="4" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I121" s="2" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="J121" s="2" t="inlineStr">
+        <is>
+          <t>MANTENER</t>
+        </is>
+      </c>
+      <c r="K121" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L121" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="M121" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N121" s="4" t="n">
+        <v>114.75</v>
+      </c>
+      <c r="O121" s="4" t="n">
+        <v>82.75</v>
+      </c>
+      <c r="P121" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">VIVEROS ECOPLANT SL                                                                                                     </t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="inlineStr">
+        <is>
           <t>1507020003</t>
         </is>
       </c>
-      <c r="B119" s="2" t="inlineStr">
+      <c r="B122" s="2" t="inlineStr">
         <is>
           <t>CACTUS COLA DE MONO</t>
         </is>
       </c>
-      <c r="C119" s="2" t="inlineStr">
+      <c r="C122" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">M9COLG   </t>
         </is>
       </c>
-      <c r="D119" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">UNICO   </t>
-        </is>
-      </c>
-      <c r="E119" s="2" t="inlineStr">
-        <is>
-          <t>interior</t>
-        </is>
-      </c>
-      <c r="F119" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G119" s="4" t="n">
+      <c r="D122" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">UNICO   </t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="inlineStr">
+        <is>
+          <t>interior</t>
+        </is>
+      </c>
+      <c r="F122" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G122" s="4" t="n">
         <v>3.45</v>
       </c>
-      <c r="H119" s="4" t="n">
+      <c r="H122" s="4" t="n">
         <v>1.22</v>
       </c>
-      <c r="I119" s="2" t="inlineStr">
+      <c r="I122" s="2" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="J119" s="2" t="inlineStr">
+      <c r="J122" s="2" t="inlineStr">
         <is>
           <t>REDUCIR 15%</t>
         </is>
       </c>
-      <c r="K119" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L119" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N119" s="4" t="n">
+      <c r="K122" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N122" s="4" t="n">
         <v>3.45</v>
       </c>
-      <c r="O119" s="4" t="n">
+      <c r="O122" s="4" t="n">
         <v>2.23</v>
       </c>
-      <c r="P119" s="5" t="inlineStr">
+      <c r="P122" s="5" t="inlineStr">
         <is>
           <t xml:space="preserve">VIVEROS ECOPLANT SL                                                                                                     </t>
         </is>
       </c>
     </row>
-    <row r="121">
-      <c r="B121" s="6" t="inlineStr">
+    <row r="124">
+      <c r="B124" s="6" t="inlineStr">
         <is>
           <t>METRICAS DE RESUMEN</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="B122" s="7" t="inlineStr">
-        <is>
-          <t>Total_Unidades:</t>
-        </is>
-      </c>
-      <c r="C122" s="8" t="n">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="B123" s="7" t="inlineStr">
-        <is>
-          <t>Total_Articulos:</t>
-        </is>
-      </c>
-      <c r="C123" s="8" t="n">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="B124" s="7" t="inlineStr">
-        <is>
-          <t>Total_Importe:</t>
-        </is>
-      </c>
-      <c r="C124" s="8" t="inlineStr">
-        <is>
-          <t>3828.83€</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="B125" s="7" t="inlineStr">
         <is>
-          <t>Objetivo_Semana:</t>
-        </is>
-      </c>
-      <c r="C125" s="8" t="inlineStr">
-        <is>
-          <t>2930.63€</t>
-        </is>
+          <t>Total_Unidades:</t>
+        </is>
+      </c>
+      <c r="C125" s="8" t="n">
+        <v>454</v>
       </c>
     </row>
     <row r="126">
       <c r="B126" s="7" t="inlineStr">
         <is>
-          <t>Factor_Crecimiento:</t>
-        </is>
-      </c>
-      <c r="C126" s="8" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
+          <t>Total_Articulos:</t>
+        </is>
+      </c>
+      <c r="C126" s="8" t="n">
+        <v>121</v>
       </c>
     </row>
     <row r="127">
       <c r="B127" s="7" t="inlineStr">
         <is>
-          <t>Factor_Festivo:</t>
+          <t>Total_Importe:</t>
         </is>
       </c>
       <c r="C127" s="8" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>3855.17€</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="B128" s="7" t="inlineStr">
         <is>
-          <t>Articulos_A:</t>
-        </is>
-      </c>
-      <c r="C128" s="8" t="n">
-        <v>73</v>
+          <t>Objetivo_Semana:</t>
+        </is>
+      </c>
+      <c r="C128" s="8" t="inlineStr">
+        <is>
+          <t>2930.63€</t>
+        </is>
       </c>
     </row>
     <row r="129">
       <c r="B129" s="7" t="inlineStr">
         <is>
-          <t>Articulos_B:</t>
-        </is>
-      </c>
-      <c r="C129" s="8" t="n">
-        <v>38</v>
+          <t>Factor_Crecimiento:</t>
+        </is>
+      </c>
+      <c r="C129" s="8" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
       </c>
     </row>
     <row r="130">
       <c r="B130" s="7" t="inlineStr">
         <is>
-          <t>Articulos_C:</t>
-        </is>
-      </c>
-      <c r="C130" s="8" t="n">
-        <v>7</v>
+          <t>Factor_Festivo:</t>
+        </is>
+      </c>
+      <c r="C130" s="8" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
       </c>
     </row>
     <row r="131">
       <c r="B131" s="7" t="inlineStr">
         <is>
-          <t>Stock_Minimo_%:</t>
-        </is>
-      </c>
-      <c r="C131" s="8" t="inlineStr">
-        <is>
-          <t>30%</t>
-        </is>
+          <t>Articulos_A:</t>
+        </is>
+      </c>
+      <c r="C131" s="8" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="132">
       <c r="B132" s="7" t="inlineStr">
         <is>
-          <t>Stock_Minimo_Objetivo:</t>
+          <t>Articulos_B:</t>
         </is>
       </c>
       <c r="C132" s="8" t="n">
-        <v>196</v>
+        <v>38</v>
       </c>
     </row>
     <row r="133">
       <c r="B133" s="7" t="inlineStr">
         <is>
+          <t>Articulos_C:</t>
+        </is>
+      </c>
+      <c r="C133" s="8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="B134" s="7" t="inlineStr">
+        <is>
+          <t>Stock_Minimo_%:</t>
+        </is>
+      </c>
+      <c r="C134" s="8" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="B135" s="7" t="inlineStr">
+        <is>
+          <t>Stock_Minimo_Objetivo:</t>
+        </is>
+      </c>
+      <c r="C135" s="8" t="n">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="B136" s="7" t="inlineStr">
+        <is>
           <t>Total_Ajuste_Stock:</t>
         </is>
       </c>
-      <c r="C133" s="8" t="n">
-        <v>51</v>
+      <c r="C136" s="8" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B121:C121"/>
+    <mergeCell ref="B124:C124"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
